--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_15.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/50/Output_5_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>336056.0245000749</v>
+        <v>329874.9456457372</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4007641.222356123</v>
+        <v>3053784.885392072</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15407201.08255131</v>
+        <v>14329768.59746983</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6017650.019599809</v>
+        <v>6455143.140330441</v>
       </c>
     </row>
     <row r="11">
@@ -704,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="U2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>135.7293992974318</v>
@@ -722,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>29.81855126207271</v>
       </c>
     </row>
     <row r="3">
@@ -750,58 +752,58 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
         <v>119.5504549011779</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>135.7293992974318</v>
@@ -893,73 +895,73 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="F5" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>135.7293992974318</v>
@@ -972,76 +974,76 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="C6" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
-      <c r="U6" t="n">
-        <v>0</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>119.5504549011779</v>
       </c>
       <c r="X6" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="7">
@@ -1096,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>135.7293992974318</v>
@@ -1108,7 +1110,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="U7" t="n">
-        <v>81.39848696832989</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1145,61 +1147,61 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H8" t="n">
+      <c r="V8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I8" t="n">
+      <c r="W8" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>119.5504549011779</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,76 +1211,76 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>127.4412149769483</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>59.18642621600367</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C9" t="n">
+      <c r="V9" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D9" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>0</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
-      <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
-        <v>0</v>
-      </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>68.65221300565776</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1300,52 +1302,52 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>60.09378870120887</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>38.15196793284785</v>
+      </c>
+      <c r="R10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H10" t="n">
+      <c r="S10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I10" t="n">
+      <c r="T10" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="J10" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>81.39848696832989</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1376,55 +1378,55 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F11" t="n">
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="G11" t="n">
+      <c r="T11" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>29.81855126207271</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>89.73190363910518</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1449,70 +1451,70 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
+      <c r="R12" t="n">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" t="n">
+        <v>119.5504549011779</v>
+      </c>
+      <c r="V12" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="D12" t="n">
-        <v>119.5504549011779</v>
-      </c>
-      <c r="E12" t="n">
+      <c r="W12" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>0</v>
-      </c>
-      <c r="R12" t="n">
-        <v>0</v>
-      </c>
-      <c r="S12" t="n">
+      <c r="X12" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="T12" t="n">
-        <v>0</v>
-      </c>
-      <c r="U12" t="n">
-        <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1537,52 +1539,52 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>60.09378870120875</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H13" t="n">
+      <c r="S13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I13" t="n">
+      <c r="T13" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="J13" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" t="n">
-        <v>0</v>
-      </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>29.81855126207271</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,13 +1654,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="T14" t="n">
-        <v>135.7293992974318</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="U14" t="n">
         <v>135.7293992974318</v>
@@ -1686,13 +1688,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>119.5504549011779</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1740,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="X15" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
     </row>
     <row r="16">
@@ -1774,52 +1776,52 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>60.09378870120875</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="H16" t="n">
+      <c r="S16" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="I16" t="n">
+      <c r="T16" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="J16" t="n">
-        <v>59.456666199969</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>119.5504549011778</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1853,16 +1855,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>119.5504549011779</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G17" t="n">
-        <v>135.7293992974318</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>218.8580034825794</v>
       </c>
       <c r="V17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1920,28 +1922,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.09209246479631</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1974,22 +1976,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>135.7293992974318</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V18" t="n">
-        <v>135.7293992974318</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W18" t="n">
-        <v>135.7293992974318</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="19">
@@ -2047,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T19" t="n">
-        <v>135.7293992974318</v>
+        <v>167.1394242513582</v>
       </c>
       <c r="U19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>119.5504549011779</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2087,7 +2089,7 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2129,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>104.2049338485973</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2144,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>120.8391135758914</v>
       </c>
       <c r="Y20" t="n">
         <v>389.6064368699203</v>
@@ -2166,16 +2168,16 @@
         <v>137.45025063969</v>
       </c>
       <c r="E21" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F21" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2217,16 +2219,16 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V21" t="n">
-        <v>225.4815189897806</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W21" t="n">
         <v>238.9027100790231</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="22">
@@ -2251,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>158.8972820020618</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>268.6107013963115</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2305,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="23">
@@ -2318,19 +2320,19 @@
         <v>390.1031041228389</v>
       </c>
       <c r="C23" t="n">
-        <v>77.89647402738545</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G23" t="n">
-        <v>411.9429466803539</v>
+        <v>158.820344174358</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2363,13 +2365,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2403,13 +2405,13 @@
         <v>137.45025063969</v>
       </c>
       <c r="E24" t="n">
-        <v>145.5577298436975</v>
+        <v>118.1202051047698</v>
       </c>
       <c r="F24" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>65.32728151759733</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2454,7 +2456,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W24" t="n">
         <v>238.9027100790231</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>56.24178417306846</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2518,16 +2520,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>13.48037621410397</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>284.3183371157911</v>
@@ -2539,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2552,28 +2554,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F26" t="n">
-        <v>88.05326390774893</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9429466803539</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>329.4930616586638</v>
+        <v>61.80406596573173</v>
       </c>
       <c r="I26" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2600,25 +2602,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S26" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X26" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2640,19 +2642,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>186.7982527956746</v>
+        <v>41.33210888672573</v>
       </c>
       <c r="U27" t="n">
         <v>216.3098444776729</v>
@@ -2755,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R28" t="n">
-        <v>57.0380364259622</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S28" t="n">
         <v>211.5726649703493</v>
@@ -2770,10 +2772,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>128.9874563185103</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,10 +2791,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2801,16 +2803,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>400.2029350618348</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S29" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>64.02680196474668</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2888,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S30" t="n">
         <v>151.2714921173871</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U30" t="n">
         <v>216.3098444776729</v>
       </c>
       <c r="V30" t="n">
-        <v>183.8707455523276</v>
+        <v>10.1518352840637</v>
       </c>
       <c r="W30" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>195.9378182409833</v>
@@ -2950,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2962,13 +2964,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>167.2305511458285</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>101.380150250483</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>100.6908915533748</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3026,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>317.0449784012773</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,22 +3076,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U32" t="n">
-        <v>45.1698862384374</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3114,10 +3116,10 @@
         <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>118.1202051047698</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3153,10 +3155,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>151.2714921173871</v>
+        <v>49.67353352483909</v>
       </c>
       <c r="T33" t="n">
         <v>186.7982527956746</v>
@@ -3187,7 +3189,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3232,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>127.9716792980587</v>
       </c>
       <c r="S34" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U34" t="n">
-        <v>284.3183371157911</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>30.84765070733269</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3278,10 +3280,10 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9429466803539</v>
+        <v>156.9294944227017</v>
       </c>
       <c r="H35" t="n">
-        <v>78.5960291053654</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,7 +3325,7 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3360,10 +3362,10 @@
         <v>127.4412149769483</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3393,13 +3395,13 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T36" t="n">
-        <v>109.0305713435654</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U36" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>226.1116663261494</v>
@@ -3411,7 +3413,7 @@
         <v>195.9378182409833</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.5961130869169</v>
+        <v>11.22984265948532</v>
       </c>
     </row>
     <row r="37">
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>77.98390611024946</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>48.7958941766659</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3481,13 +3483,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y37" t="n">
         <v>219.8148072196457</v>
@@ -3500,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>88.94385587348096</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>325.924842398394</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3557,16 +3559,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y38" t="n">
         <v>389.6064368699203</v>
@@ -3594,10 +3596,10 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3630,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>49.67353352483909</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>186.7982527956746</v>
+        <v>10.09209246479686</v>
       </c>
       <c r="U39" t="n">
         <v>216.3098444776729</v>
@@ -3664,19 +3666,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E40" t="n">
-        <v>150.4889240962943</v>
+        <v>50.1880086386108</v>
       </c>
       <c r="F40" t="n">
-        <v>150.9558484244806</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H40" t="n">
-        <v>58.06332912686938</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>227.4414471556335</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E41" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>79.82974192480785</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,28 +3787,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X41" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3828,16 +3830,16 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>127.4412149769483</v>
+        <v>31.74890147707643</v>
       </c>
       <c r="H42" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>49.40550599527123</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T42" t="n">
         <v>186.7982527956746</v>
@@ -3876,7 +3878,7 @@
         <v>216.3098444776729</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W42" t="n">
         <v>238.9027100790231</v>
@@ -3904,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>150.4889240962943</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>8.408357905767488</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>268.6107013963115</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3964,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,16 +3976,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>135.7293992974318</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C44" t="n">
-        <v>119.5504549011779</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -3992,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>135.7293992974318</v>
+        <v>226.9531031655387</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4053,28 +4055,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>31.28269957069985</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D45" t="n">
-        <v>135.7293992974318</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F45" t="n">
         <v>133.3468600696244</v>
       </c>
       <c r="G45" t="n">
-        <v>127.4412149769483</v>
+        <v>127.2368531361802</v>
       </c>
       <c r="H45" t="n">
-        <v>98.93847887876893</v>
+        <v>96.9647737324037</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>60.66232013214974</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,28 +4103,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>46.49806561112343</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>147.4755605575067</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>185.9745311655613</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>216.2963996197277</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="46">
@@ -4141,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4177,10 +4179,10 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>81.39848696832993</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>125.8532215944585</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4337,10 +4339,10 @@
         <v>217.2290015210577</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2290015210577</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="N2" t="n">
-        <v>351.6011068255151</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O2" t="n">
         <v>448.4853435031901</v>
@@ -4352,25 +4354,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R2" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S2" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T2" t="n">
-        <v>315.1789073548413</v>
+        <v>422.159561936012</v>
       </c>
       <c r="U2" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="V2" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W2" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X2" t="n">
-        <v>40.97810069336293</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y2" t="n">
         <v>10.85835194379454</v>
@@ -4383,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C3" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D3" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E3" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F3" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G3" t="n">
         <v>10.85835194379454</v>
@@ -4407,25 +4409,25 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J3" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K3" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L3" t="n">
-        <v>10.85835194379454</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M3" t="n">
-        <v>10.85835194379454</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N3" t="n">
-        <v>145.230457248252</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O3" t="n">
-        <v>274.1733865808121</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P3" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q3" t="n">
         <v>542.9175971897271</v>
@@ -4449,10 +4451,10 @@
         <v>542.9175971897271</v>
       </c>
       <c r="X3" t="n">
-        <v>542.9175971897271</v>
+        <v>422.159561936012</v>
       </c>
       <c r="Y3" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
     </row>
     <row r="4">
@@ -4483,13 +4485,13 @@
         <v>208.015993860361</v>
       </c>
       <c r="I4" t="n">
-        <v>70.91559052962182</v>
+        <v>70.91559052962184</v>
       </c>
       <c r="J4" t="n">
-        <v>10.85835194379454</v>
+        <v>10.85835194379456</v>
       </c>
       <c r="K4" t="n">
-        <v>44.46253968843796</v>
+        <v>44.46253968843799</v>
       </c>
       <c r="L4" t="n">
         <v>145.0696190886975</v>
@@ -4498,7 +4500,7 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N4" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658997</v>
       </c>
       <c r="O4" t="n">
         <v>479.9491134615893</v>
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C5" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D5" t="n">
-        <v>268.7167905282488</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E5" t="n">
-        <v>131.6163871975096</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H5" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="I5" t="n">
         <v>10.85835194379454</v>
       </c>
       <c r="J5" t="n">
-        <v>82.85689621660021</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K5" t="n">
-        <v>82.85689621660021</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="L5" t="n">
-        <v>217.2290015210577</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="M5" t="n">
-        <v>217.2290015210577</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N5" t="n">
-        <v>217.2290015210577</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O5" t="n">
-        <v>314.1132381987326</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P5" t="n">
-        <v>448.4853435031901</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q5" t="n">
         <v>542.9175971897271</v>
@@ -4607,10 +4609,10 @@
         <v>542.9175971897271</v>
       </c>
       <c r="X5" t="n">
-        <v>542.9175971897271</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="Y5" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
     </row>
     <row r="6">
@@ -4620,7 +4622,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>147.9587552745337</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="C6" t="n">
         <v>10.85835194379454</v>
@@ -4644,22 +4646,22 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J6" t="n">
-        <v>71.11249847690068</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="K6" t="n">
-        <v>205.4846037813581</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="L6" t="n">
-        <v>339.8567090858156</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M6" t="n">
-        <v>408.5454918852696</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N6" t="n">
         <v>408.5454918852696</v>
       </c>
       <c r="O6" t="n">
-        <v>542.9175971897271</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P6" t="n">
         <v>542.9175971897271</v>
@@ -4683,13 +4685,13 @@
         <v>542.9175971897271</v>
       </c>
       <c r="W6" t="n">
-        <v>422.159561936012</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="X6" t="n">
-        <v>285.0591586052728</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="Y6" t="n">
-        <v>285.0591586052728</v>
+        <v>131.6163871975096</v>
       </c>
     </row>
     <row r="7">
@@ -4744,16 +4746,16 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q7" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R7" t="n">
-        <v>367.2798525126768</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S7" t="n">
-        <v>230.1794491819377</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="T7" t="n">
-        <v>93.07904585119849</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="U7" t="n">
         <v>10.85835194379454</v>
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G8" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H8" t="n">
-        <v>131.6163871975096</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I8" t="n">
         <v>10.85835194379454</v>
@@ -4805,16 +4807,16 @@
         <v>82.85689621660021</v>
       </c>
       <c r="K8" t="n">
-        <v>82.85689621660021</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L8" t="n">
-        <v>217.2290015210577</v>
+        <v>351.6011068255151</v>
       </c>
       <c r="M8" t="n">
-        <v>351.6011068255151</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N8" t="n">
-        <v>485.9732121299726</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O8" t="n">
         <v>542.9175971897271</v>
@@ -4829,25 +4831,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S8" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T8" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U8" t="n">
         <v>405.8171938589879</v>
       </c>
       <c r="V8" t="n">
-        <v>405.8171938589879</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="W8" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="X8" t="n">
-        <v>405.8171938589879</v>
+        <v>131.6163871975096</v>
       </c>
       <c r="Y8" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>268.7167905282488</v>
+        <v>139.58685192051</v>
       </c>
       <c r="C9" t="n">
-        <v>131.6163871975096</v>
+        <v>139.58685192051</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>139.58685192051</v>
       </c>
       <c r="G9" t="n">
         <v>10.85835194379454</v>
@@ -4881,52 +4883,52 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J9" t="n">
-        <v>10.85835194379454</v>
+        <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>10.85835194379454</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L9" t="n">
-        <v>10.85835194379454</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M9" t="n">
-        <v>139.8012812763547</v>
+        <v>474.2288143902731</v>
       </c>
       <c r="N9" t="n">
-        <v>274.1733865808121</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="O9" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P9" t="n">
-        <v>408.5454918852696</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
       </c>
       <c r="R9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T9" t="n">
-        <v>542.9175971897271</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U9" t="n">
-        <v>542.9175971897271</v>
+        <v>346.0329249539337</v>
       </c>
       <c r="V9" t="n">
-        <v>542.9175971897271</v>
+        <v>208.9325216231946</v>
       </c>
       <c r="W9" t="n">
-        <v>542.9175971897271</v>
+        <v>139.58685192051</v>
       </c>
       <c r="X9" t="n">
-        <v>542.9175971897271</v>
+        <v>139.58685192051</v>
       </c>
       <c r="Y9" t="n">
-        <v>405.8171938589879</v>
+        <v>139.58685192051</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F10" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G10" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H10" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I10" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4972,40 +4974,40 @@
         <v>263.0631252162992</v>
       </c>
       <c r="N10" t="n">
-        <v>381.4854669658996</v>
+        <v>381.4854669658995</v>
       </c>
       <c r="O10" t="n">
-        <v>479.9491134615893</v>
+        <v>479.9491134615892</v>
       </c>
       <c r="P10" t="n">
-        <v>542.9175971897271</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>542.9175971897271</v>
+        <v>504.380255843416</v>
       </c>
       <c r="R10" t="n">
-        <v>542.9175971897271</v>
+        <v>367.2798525126768</v>
       </c>
       <c r="S10" t="n">
-        <v>542.9175971897271</v>
+        <v>230.1794491819377</v>
       </c>
       <c r="T10" t="n">
-        <v>542.9175971897271</v>
+        <v>93.07904585119849</v>
       </c>
       <c r="U10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y10" t="n">
-        <v>542.9175971897271</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="C11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E11" t="n">
-        <v>315.1789073548413</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="F11" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="G11" t="n">
-        <v>40.97810069336293</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="H11" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I11" t="n">
         <v>10.85835194379454</v>
@@ -5045,16 +5047,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L11" t="n">
-        <v>10.85835194379454</v>
+        <v>139.8012812763547</v>
       </c>
       <c r="M11" t="n">
-        <v>145.230457248252</v>
+        <v>274.1733865808121</v>
       </c>
       <c r="N11" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O11" t="n">
-        <v>413.9746678571669</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P11" t="n">
         <v>542.9175971897271</v>
@@ -5063,28 +5065,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R11" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S11" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T11" t="n">
-        <v>452.2793106855804</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="U11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="W11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="Y11" t="n">
-        <v>452.2793106855804</v>
+        <v>147.9587552745337</v>
       </c>
     </row>
     <row r="12">
@@ -5094,13 +5096,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C12" t="n">
-        <v>268.7167905282488</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D12" t="n">
-        <v>147.9587552745337</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E12" t="n">
         <v>10.85835194379454</v>
@@ -5124,16 +5126,16 @@
         <v>10.85835194379454</v>
       </c>
       <c r="L12" t="n">
-        <v>10.85835194379454</v>
+        <v>145.230457248252</v>
       </c>
       <c r="M12" t="n">
-        <v>145.230457248252</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N12" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O12" t="n">
-        <v>413.9746678571669</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P12" t="n">
         <v>542.9175971897271</v>
@@ -5145,25 +5147,25 @@
         <v>542.9175971897271</v>
       </c>
       <c r="S12" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="T12" t="n">
-        <v>405.8171938589879</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="U12" t="n">
-        <v>405.8171938589879</v>
+        <v>422.159561936012</v>
       </c>
       <c r="V12" t="n">
-        <v>405.8171938589879</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="W12" t="n">
-        <v>405.8171938589879</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="X12" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y12" t="n">
-        <v>405.8171938589879</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F13" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G13" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H13" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I13" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J13" t="n">
         <v>10.85835194379454</v>
@@ -5221,28 +5223,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="R13" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S13" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="T13" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="U13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y13" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I14" t="n">
         <v>10.85835194379454</v>
@@ -5285,13 +5287,13 @@
         <v>145.230457248252</v>
       </c>
       <c r="M14" t="n">
-        <v>145.230457248252</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N14" t="n">
-        <v>279.6025625527094</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O14" t="n">
-        <v>413.9746678571669</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="P14" t="n">
         <v>542.9175971897271</v>
@@ -5300,28 +5302,28 @@
         <v>542.9175971897271</v>
       </c>
       <c r="R14" t="n">
-        <v>452.2793106855804</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="S14" t="n">
-        <v>452.2793106855804</v>
+        <v>405.8171938589879</v>
       </c>
       <c r="T14" t="n">
-        <v>315.1789073548413</v>
+        <v>285.0591586052728</v>
       </c>
       <c r="U14" t="n">
-        <v>178.0785040241021</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="V14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y14" t="n">
-        <v>40.97810069336293</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="15">
@@ -5331,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.85835194379454</v>
+        <v>268.7167905282488</v>
       </c>
       <c r="C15" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="D15" t="n">
-        <v>10.85835194379454</v>
+        <v>147.9587552745337</v>
       </c>
       <c r="E15" t="n">
         <v>10.85835194379454</v>
@@ -5364,7 +5366,7 @@
         <v>145.230457248252</v>
       </c>
       <c r="M15" t="n">
-        <v>274.1733865808121</v>
+        <v>279.6025625527094</v>
       </c>
       <c r="N15" t="n">
         <v>408.5454918852696</v>
@@ -5388,19 +5390,19 @@
         <v>542.9175971897271</v>
       </c>
       <c r="U15" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="V15" t="n">
+        <v>542.9175971897271</v>
+      </c>
+      <c r="W15" t="n">
         <v>405.8171938589879</v>
       </c>
-      <c r="V15" t="n">
+      <c r="X15" t="n">
+        <v>405.8171938589879</v>
+      </c>
+      <c r="Y15" t="n">
         <v>268.7167905282488</v>
-      </c>
-      <c r="W15" t="n">
-        <v>131.6163871975096</v>
-      </c>
-      <c r="X15" t="n">
-        <v>10.85835194379454</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="C16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="D16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="E16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="F16" t="n">
-        <v>482.2168005218393</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="G16" t="n">
-        <v>345.1163971911002</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="H16" t="n">
-        <v>208.015993860361</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="I16" t="n">
-        <v>70.91559052962182</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="J16" t="n">
         <v>10.85835194379454</v>
@@ -5458,28 +5460,28 @@
         <v>542.917597189727</v>
       </c>
       <c r="R16" t="n">
-        <v>542.917597189727</v>
+        <v>405.8171938589878</v>
       </c>
       <c r="S16" t="n">
-        <v>542.917597189727</v>
+        <v>268.7167905282487</v>
       </c>
       <c r="T16" t="n">
-        <v>542.917597189727</v>
+        <v>131.6163871975095</v>
       </c>
       <c r="U16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="V16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="W16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="X16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
       <c r="Y16" t="n">
-        <v>542.917597189727</v>
+        <v>10.85835194379454</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="C17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="D17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="E17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="F17" t="n">
-        <v>147.9587552745337</v>
+        <v>963.766715840906</v>
       </c>
       <c r="G17" t="n">
-        <v>10.85835194379454</v>
+        <v>547.662729295094</v>
       </c>
       <c r="H17" t="n">
-        <v>10.85835194379454</v>
+        <v>214.8414548924032</v>
       </c>
       <c r="I17" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J17" t="n">
-        <v>10.85835194379454</v>
+        <v>114.0228003740045</v>
       </c>
       <c r="K17" t="n">
-        <v>10.85835194379454</v>
+        <v>354.1631724187873</v>
       </c>
       <c r="L17" t="n">
-        <v>139.8012812763547</v>
+        <v>702.0485455037335</v>
       </c>
       <c r="M17" t="n">
-        <v>274.1733865808121</v>
+        <v>1095.287711756821</v>
       </c>
       <c r="N17" t="n">
-        <v>408.5454918852696</v>
+        <v>1473.619070444537</v>
       </c>
       <c r="O17" t="n">
-        <v>408.5454918852696</v>
+        <v>1778.623654917371</v>
       </c>
       <c r="P17" t="n">
-        <v>542.9175971897271</v>
+        <v>2006.780551373424</v>
       </c>
       <c r="Q17" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R17" t="n">
-        <v>542.9175971897271</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S17" t="n">
-        <v>542.9175971897271</v>
+        <v>1823.345543186168</v>
       </c>
       <c r="T17" t="n">
-        <v>542.9175971897271</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U17" t="n">
-        <v>542.9175971897271</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="V17" t="n">
-        <v>405.8171938589879</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="W17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="X17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
       <c r="Y17" t="n">
-        <v>268.7167905282488</v>
+        <v>1377.917906530736</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.85835194379454</v>
+        <v>863.1487640860278</v>
       </c>
       <c r="C18" t="n">
-        <v>10.85835194379454</v>
+        <v>701.4450913269825</v>
       </c>
       <c r="D18" t="n">
-        <v>10.85835194379454</v>
+        <v>562.6064543171946</v>
       </c>
       <c r="E18" t="n">
-        <v>10.85835194379454</v>
+        <v>415.5784443740658</v>
       </c>
       <c r="F18" t="n">
-        <v>10.85835194379454</v>
+        <v>280.8846463239402</v>
       </c>
       <c r="G18" t="n">
-        <v>10.85835194379454</v>
+        <v>152.1561463472247</v>
       </c>
       <c r="H18" t="n">
-        <v>10.85835194379454</v>
+        <v>52.21828889392278</v>
       </c>
       <c r="I18" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J18" t="n">
-        <v>71.11249847690068</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K18" t="n">
-        <v>71.11249847690068</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L18" t="n">
-        <v>205.4846037813581</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M18" t="n">
-        <v>339.8567090858156</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N18" t="n">
-        <v>408.5454918852696</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O18" t="n">
-        <v>542.9175971897271</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P18" t="n">
-        <v>542.9175971897271</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S18" t="n">
-        <v>542.9175971897271</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T18" t="n">
-        <v>422.159561936012</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U18" t="n">
-        <v>285.0591586052728</v>
+        <v>1882.718012658271</v>
       </c>
       <c r="V18" t="n">
-        <v>147.9587552745337</v>
+        <v>1654.322390106605</v>
       </c>
       <c r="W18" t="n">
-        <v>10.85835194379454</v>
+        <v>1413.006521339915</v>
       </c>
       <c r="X18" t="n">
-        <v>10.85835194379454</v>
+        <v>1215.08953321771</v>
       </c>
       <c r="Y18" t="n">
-        <v>10.85835194379454</v>
+        <v>1022.568206867289</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="C19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="D19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="E19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="J19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="K19" t="n">
-        <v>44.46253968843796</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L19" t="n">
-        <v>145.0696190886975</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M19" t="n">
-        <v>263.0631252162992</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N19" t="n">
-        <v>381.4854669658995</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O19" t="n">
-        <v>479.9491134615892</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q19" t="n">
-        <v>542.917597189727</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R19" t="n">
-        <v>542.9175971897271</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S19" t="n">
-        <v>542.9175971897271</v>
+        <v>210.8519573651974</v>
       </c>
       <c r="T19" t="n">
-        <v>405.8171938589879</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="U19" t="n">
-        <v>268.7167905282488</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="V19" t="n">
-        <v>131.6163871975096</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="W19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="X19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.85835194379454</v>
+        <v>42.02425610119923</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>796.7819795411683</v>
+        <v>1191.567699435062</v>
       </c>
       <c r="C20" t="n">
-        <v>414.8482208739757</v>
+        <v>809.6339407678688</v>
       </c>
       <c r="D20" t="n">
-        <v>42.02425610119923</v>
+        <v>436.8099759950924</v>
       </c>
       <c r="E20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="F20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="G20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="H20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I20" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J20" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K20" t="n">
         <v>354.1631724187877</v>
       </c>
       <c r="L20" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M20" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N20" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O20" t="n">
         <v>1778.623654917371</v>
@@ -5777,25 +5779,25 @@
         <v>2101.212805059961</v>
       </c>
       <c r="S20" t="n">
-        <v>1913.983829690315</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T20" t="n">
-        <v>1689.624883421327</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U20" t="n">
-        <v>1584.36737448335</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V20" t="n">
-        <v>1584.36737448335</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="W20" t="n">
-        <v>1584.36737448335</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="X20" t="n">
-        <v>1584.36737448335</v>
+        <v>1979.153094377243</v>
       </c>
       <c r="Y20" t="n">
-        <v>1190.825519059187</v>
+        <v>1585.611238953081</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5807,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>852.9547312933042</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C21" t="n">
-        <v>691.251058534259</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D21" t="n">
-        <v>552.412421524471</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E21" t="n">
-        <v>405.3844115813423</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F21" t="n">
-        <v>270.6906135312166</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G21" t="n">
-        <v>141.9621135545012</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H21" t="n">
         <v>42.02425610119923</v>
@@ -5832,22 +5834,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K21" t="n">
-        <v>44.796090196649</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="L21" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811703</v>
       </c>
       <c r="M21" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N21" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O21" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P21" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q21" t="n">
         <v>2101.212805059961</v>
@@ -5865,16 +5867,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V21" t="n">
-        <v>1253.690042841255</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W21" t="n">
-        <v>1012.374174074565</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X21" t="n">
-        <v>1012.374174074565</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y21" t="n">
-        <v>1012.374174074565</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.02425610119923</v>
+        <v>202.526561153787</v>
       </c>
       <c r="C22" t="n">
-        <v>42.02425610119923</v>
+        <v>202.526561153787</v>
       </c>
       <c r="D22" t="n">
-        <v>42.02425610119923</v>
+        <v>202.526561153787</v>
       </c>
       <c r="E22" t="n">
-        <v>42.02425610119923</v>
+        <v>202.526561153787</v>
       </c>
       <c r="F22" t="n">
-        <v>42.02425610119923</v>
+        <v>202.526561153787</v>
       </c>
       <c r="G22" t="n">
         <v>42.02425610119923</v>
@@ -5932,28 +5934,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R22" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="S22" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="T22" t="n">
-        <v>574.0835013471317</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="U22" t="n">
-        <v>302.7595605427766</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="V22" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="W22" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="X22" t="n">
-        <v>42.02425610119923</v>
+        <v>424.5617199615099</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.02425610119923</v>
+        <v>202.526561153787</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>931.5972696392735</v>
+        <v>616.600036866138</v>
       </c>
       <c r="C23" t="n">
-        <v>852.9139625409043</v>
+        <v>616.600036866138</v>
       </c>
       <c r="D23" t="n">
-        <v>852.9139625409043</v>
+        <v>616.600036866138</v>
       </c>
       <c r="E23" t="n">
-        <v>458.1282426470112</v>
+        <v>616.600036866138</v>
       </c>
       <c r="F23" t="n">
-        <v>458.1282426470112</v>
+        <v>202.4488461763083</v>
       </c>
       <c r="G23" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="H23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="I23" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119928</v>
       </c>
       <c r="J23" t="n">
-        <v>114.0228003740049</v>
+        <v>114.022800374005</v>
       </c>
       <c r="K23" t="n">
         <v>354.1631724187877</v>
@@ -6011,28 +6013,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S23" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T23" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="U23" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="V23" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="W23" t="n">
-        <v>2101.212805059961</v>
+        <v>1786.215572286826</v>
       </c>
       <c r="X23" t="n">
-        <v>1719.182664581455</v>
+        <v>1404.185431808319</v>
       </c>
       <c r="Y23" t="n">
-        <v>1325.640809157293</v>
+        <v>1010.643576384157</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>690.275526911365</v>
+        <v>461.879904359699</v>
       </c>
       <c r="C24" t="n">
-        <v>528.5718541523197</v>
+        <v>300.1762316006536</v>
       </c>
       <c r="D24" t="n">
-        <v>389.7332171425318</v>
+        <v>161.3375945908657</v>
       </c>
       <c r="E24" t="n">
-        <v>242.705207199403</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="F24" t="n">
-        <v>108.0114091492773</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G24" t="n">
         <v>42.02425610119923</v>
@@ -6069,22 +6071,22 @@
         <v>102.2784026343054</v>
       </c>
       <c r="K24" t="n">
-        <v>331.768955194494</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L24" t="n">
-        <v>697.5908003646097</v>
+        <v>468.100247804421</v>
       </c>
       <c r="M24" t="n">
-        <v>1182.624153874836</v>
+        <v>737.8796590913968</v>
       </c>
       <c r="N24" t="n">
-        <v>1693.889799997958</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O24" t="n">
-        <v>2086.089750782109</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P24" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q24" t="n">
         <v>2101.212805059961</v>
@@ -6102,16 +6104,16 @@
         <v>1481.449152931943</v>
       </c>
       <c r="V24" t="n">
-        <v>1481.449152931943</v>
+        <v>1253.053530380276</v>
       </c>
       <c r="W24" t="n">
-        <v>1240.133284165252</v>
+        <v>1011.737661613587</v>
       </c>
       <c r="X24" t="n">
-        <v>1042.216296043047</v>
+        <v>813.8206734913811</v>
       </c>
       <c r="Y24" t="n">
-        <v>849.6949696926259</v>
+        <v>621.2993471409599</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>42.02425610119923</v>
+        <v>1625.963442817128</v>
       </c>
       <c r="C25" t="n">
-        <v>42.02425610119923</v>
+        <v>1625.963442817128</v>
       </c>
       <c r="D25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="E25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="F25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="G25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="H25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="I25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J25" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K25" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L25" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M25" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N25" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O25" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P25" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q25" t="n">
-        <v>574.0835013471317</v>
+        <v>2062.675463713651</v>
       </c>
       <c r="R25" t="n">
-        <v>574.0835013471317</v>
+        <v>1913.153682328029</v>
       </c>
       <c r="S25" t="n">
-        <v>574.0835013471317</v>
+        <v>1913.153682328029</v>
       </c>
       <c r="T25" t="n">
-        <v>560.4669597167236</v>
+        <v>1913.153682328029</v>
       </c>
       <c r="U25" t="n">
-        <v>273.2767202058235</v>
+        <v>1625.963442817128</v>
       </c>
       <c r="V25" t="n">
-        <v>273.2767202058235</v>
+        <v>1625.963442817128</v>
       </c>
       <c r="W25" t="n">
-        <v>273.2767202058235</v>
+        <v>1625.963442817128</v>
       </c>
       <c r="X25" t="n">
-        <v>42.02425610119923</v>
+        <v>1625.963442817128</v>
       </c>
       <c r="Y25" t="n">
-        <v>42.02425610119923</v>
+        <v>1625.963442817128</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1052.709406656814</v>
+        <v>1253.996048895397</v>
       </c>
       <c r="C26" t="n">
-        <v>1052.709406656814</v>
+        <v>872.0622902282039</v>
       </c>
       <c r="D26" t="n">
-        <v>1052.709406656814</v>
+        <v>499.2383254554275</v>
       </c>
       <c r="E26" t="n">
-        <v>1052.709406656814</v>
+        <v>104.4526055615343</v>
       </c>
       <c r="F26" t="n">
-        <v>963.766715840906</v>
+        <v>104.4526055615343</v>
       </c>
       <c r="G26" t="n">
-        <v>547.662729295094</v>
+        <v>104.4526055615343</v>
       </c>
       <c r="H26" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I26" t="n">
         <v>42.02425610119923</v>
@@ -6248,28 +6250,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R26" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S26" t="n">
-        <v>1913.983829690315</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T26" t="n">
-        <v>1689.624883421327</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U26" t="n">
-        <v>1434.739547135321</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V26" t="n">
-        <v>1434.739547135321</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W26" t="n">
-        <v>1434.739547135321</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="X26" t="n">
-        <v>1052.709406656814</v>
+        <v>1648.039588413416</v>
       </c>
       <c r="Y26" t="n">
-        <v>1052.709406656814</v>
+        <v>1648.039588413416</v>
       </c>
     </row>
     <row r="27">
@@ -6279,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>461.879904359699</v>
+        <v>821.3991591499413</v>
       </c>
       <c r="C27" t="n">
-        <v>300.1762316006536</v>
+        <v>659.695486390896</v>
       </c>
       <c r="D27" t="n">
-        <v>161.3375945908657</v>
+        <v>520.8568493811081</v>
       </c>
       <c r="E27" t="n">
-        <v>42.02425610119923</v>
+        <v>373.8288394379794</v>
       </c>
       <c r="F27" t="n">
-        <v>42.02425610119923</v>
+        <v>239.1350413878537</v>
       </c>
       <c r="G27" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="H27" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I27" t="n">
         <v>42.02425610119923</v>
@@ -6306,19 +6308,19 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K27" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L27" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M27" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N27" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O27" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P27" t="n">
         <v>2101.212805059961</v>
@@ -6327,28 +6329,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R27" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S27" t="n">
-        <v>1888.629049167647</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T27" t="n">
-        <v>1699.943945333632</v>
+        <v>2059.463200123875</v>
       </c>
       <c r="U27" t="n">
-        <v>1481.449152931943</v>
+        <v>1840.968407722185</v>
       </c>
       <c r="V27" t="n">
-        <v>1253.053530380276</v>
+        <v>1612.572785170519</v>
       </c>
       <c r="W27" t="n">
-        <v>1011.737661613587</v>
+        <v>1371.256916403829</v>
       </c>
       <c r="X27" t="n">
-        <v>813.8206734913811</v>
+        <v>1173.339928281623</v>
       </c>
       <c r="Y27" t="n">
-        <v>621.2993471409599</v>
+        <v>980.8186019312022</v>
       </c>
     </row>
     <row r="28">
@@ -6403,22 +6405,22 @@
         <v>574.0835013471317</v>
       </c>
       <c r="Q28" t="n">
-        <v>574.0835013471317</v>
+        <v>535.5461600008207</v>
       </c>
       <c r="R28" t="n">
-        <v>516.4693231390891</v>
+        <v>386.0243786151989</v>
       </c>
       <c r="S28" t="n">
-        <v>302.7595605427766</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="T28" t="n">
-        <v>302.7595605427766</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="U28" t="n">
-        <v>302.7595605427766</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="V28" t="n">
-        <v>42.02425610119923</v>
+        <v>172.3146160188864</v>
       </c>
       <c r="W28" t="n">
         <v>42.02425610119923</v>
@@ -6437,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>942.4484491889871</v>
+        <v>1222.989123613633</v>
       </c>
       <c r="C29" t="n">
-        <v>942.4484491889871</v>
+        <v>841.0553649464407</v>
       </c>
       <c r="D29" t="n">
-        <v>942.4484491889871</v>
+        <v>841.0553649464407</v>
       </c>
       <c r="E29" t="n">
-        <v>547.662729295094</v>
+        <v>446.2696450525476</v>
       </c>
       <c r="F29" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="G29" t="n">
-        <v>547.662729295094</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="H29" t="n">
-        <v>214.8414548924032</v>
+        <v>42.02425610119923</v>
       </c>
       <c r="I29" t="n">
         <v>42.02425610119923</v>
       </c>
       <c r="J29" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K29" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187877</v>
       </c>
       <c r="L29" t="n">
-        <v>702.0485455037335</v>
+        <v>702.048545503734</v>
       </c>
       <c r="M29" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N29" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O29" t="n">
         <v>1778.623654917371</v>
@@ -6488,25 +6490,25 @@
         <v>2010.574518555815</v>
       </c>
       <c r="S29" t="n">
-        <v>1823.345543186168</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="T29" t="n">
-        <v>1598.98659691718</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="U29" t="n">
-        <v>1344.101260631174</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="V29" t="n">
-        <v>1007.121986527115</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="W29" t="n">
-        <v>942.4484491889871</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="X29" t="n">
-        <v>942.4484491889871</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="Y29" t="n">
-        <v>942.4484491889871</v>
+        <v>1617.032663131652</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C30" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D30" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E30" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F30" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G30" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H30" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I30" t="n">
         <v>42.02425610119923</v>
@@ -6543,49 +6545,49 @@
         <v>42.02425610119923</v>
       </c>
       <c r="K30" t="n">
-        <v>44.796090196649</v>
+        <v>271.5148086613879</v>
       </c>
       <c r="L30" t="n">
-        <v>410.6179353667646</v>
+        <v>637.3366538315036</v>
       </c>
       <c r="M30" t="n">
-        <v>895.6512888769911</v>
+        <v>1122.37000734173</v>
       </c>
       <c r="N30" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O30" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P30" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q30" t="n">
         <v>2101.212805059961</v>
       </c>
       <c r="R30" t="n">
-        <v>2101.212805059961</v>
+        <v>2041.428536154907</v>
       </c>
       <c r="S30" t="n">
-        <v>1948.413318072701</v>
+        <v>1888.629049167647</v>
       </c>
       <c r="T30" t="n">
-        <v>1948.413318072701</v>
+        <v>1699.943945333632</v>
       </c>
       <c r="U30" t="n">
-        <v>1729.918525671012</v>
+        <v>1481.449152931943</v>
       </c>
       <c r="V30" t="n">
-        <v>1544.19049986058</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="W30" t="n">
-        <v>1302.87463109389</v>
+        <v>1471.194773857131</v>
       </c>
       <c r="X30" t="n">
-        <v>1104.957642971684</v>
+        <v>1273.277785734925</v>
       </c>
       <c r="Y30" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>313.3481969055543</v>
+        <v>1840.477500618384</v>
       </c>
       <c r="C31" t="n">
-        <v>313.3481969055543</v>
+        <v>1670.861531080064</v>
       </c>
       <c r="D31" t="n">
-        <v>313.3481969055543</v>
+        <v>1670.861531080064</v>
       </c>
       <c r="E31" t="n">
-        <v>313.3481969055543</v>
+        <v>1670.861531080064</v>
       </c>
       <c r="F31" t="n">
-        <v>313.3481969055543</v>
+        <v>1670.861531080064</v>
       </c>
       <c r="G31" t="n">
-        <v>144.4284482734043</v>
+        <v>1670.861531080064</v>
       </c>
       <c r="H31" t="n">
-        <v>42.02425610119923</v>
+        <v>1670.861531080064</v>
       </c>
       <c r="I31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="J31" t="n">
-        <v>42.02425610119923</v>
+        <v>1569.153559814029</v>
       </c>
       <c r="K31" t="n">
-        <v>75.62844384584264</v>
+        <v>1602.757747558672</v>
       </c>
       <c r="L31" t="n">
-        <v>176.2355232461022</v>
+        <v>1703.364826958932</v>
       </c>
       <c r="M31" t="n">
-        <v>294.2290293737039</v>
+        <v>1821.358333086534</v>
       </c>
       <c r="N31" t="n">
-        <v>412.6513711233043</v>
+        <v>1939.780674836134</v>
       </c>
       <c r="O31" t="n">
-        <v>511.1150176189939</v>
+        <v>2038.244321331824</v>
       </c>
       <c r="P31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="Q31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="R31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="U31" t="n">
-        <v>574.0835013471317</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="V31" t="n">
-        <v>313.3481969055543</v>
+        <v>1840.477500618384</v>
       </c>
       <c r="W31" t="n">
-        <v>313.3481969055543</v>
+        <v>1840.477500618384</v>
       </c>
       <c r="X31" t="n">
-        <v>313.3481969055543</v>
+        <v>1840.477500618384</v>
       </c>
       <c r="Y31" t="n">
-        <v>313.3481969055543</v>
+        <v>1840.477500618384</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>796.7819795411683</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="C32" t="n">
-        <v>414.8482208739757</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="D32" t="n">
-        <v>42.02425610119923</v>
+        <v>1504.029894018196</v>
       </c>
       <c r="E32" t="n">
-        <v>42.02425610119923</v>
+        <v>1109.244174124303</v>
       </c>
       <c r="F32" t="n">
-        <v>42.02425610119923</v>
+        <v>695.0929834344731</v>
       </c>
       <c r="G32" t="n">
-        <v>42.02425610119923</v>
+        <v>374.84553050389</v>
       </c>
       <c r="H32" t="n">
         <v>42.02425610119923</v>
@@ -6722,28 +6724,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R32" t="n">
-        <v>2010.574518555815</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S32" t="n">
-        <v>1823.345543186168</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="T32" t="n">
-        <v>1598.98659691718</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="U32" t="n">
-        <v>1553.360449201586</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="V32" t="n">
-        <v>1553.360449201586</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="W32" t="n">
-        <v>1190.825519059187</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="X32" t="n">
-        <v>1190.825519059187</v>
+        <v>1876.853858790972</v>
       </c>
       <c r="Y32" t="n">
-        <v>1190.825519059187</v>
+        <v>1876.853858790972</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>461.879904359699</v>
+        <v>624.2883738632869</v>
       </c>
       <c r="C33" t="n">
-        <v>300.1762316006536</v>
+        <v>462.5847011042416</v>
       </c>
       <c r="D33" t="n">
-        <v>161.3375945908657</v>
+        <v>323.7460640944537</v>
       </c>
       <c r="E33" t="n">
-        <v>42.02425610119923</v>
+        <v>176.7180541513249</v>
       </c>
       <c r="F33" t="n">
         <v>42.02425610119923</v>
@@ -6777,22 +6779,22 @@
         <v>42.02425610119923</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2784026343054</v>
+        <v>44.796090196649</v>
       </c>
       <c r="L33" t="n">
-        <v>468.100247804421</v>
+        <v>410.6179353667646</v>
       </c>
       <c r="M33" t="n">
-        <v>953.1336013146474</v>
+        <v>895.6512888769911</v>
       </c>
       <c r="N33" t="n">
-        <v>1464.39924743777</v>
+        <v>1406.916935000113</v>
       </c>
       <c r="O33" t="n">
-        <v>1856.59919822192</v>
+        <v>1799.116885784264</v>
       </c>
       <c r="P33" t="n">
         <v>2101.212805059961</v>
@@ -6801,28 +6803,28 @@
         <v>2101.212805059961</v>
       </c>
       <c r="R33" t="n">
-        <v>2041.428536154907</v>
+        <v>2101.212805059961</v>
       </c>
       <c r="S33" t="n">
-        <v>1888.629049167647</v>
+        <v>2051.037518671235</v>
       </c>
       <c r="T33" t="n">
-        <v>1699.943945333632</v>
+        <v>1862.35241483722</v>
       </c>
       <c r="U33" t="n">
-        <v>1481.449152931943</v>
+        <v>1643.85762243553</v>
       </c>
       <c r="V33" t="n">
-        <v>1253.053530380276</v>
+        <v>1415.461999883864</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.737661613587</v>
+        <v>1174.146131117174</v>
       </c>
       <c r="X33" t="n">
-        <v>813.8206734913811</v>
+        <v>976.229142994969</v>
       </c>
       <c r="Y33" t="n">
-        <v>621.2993471409599</v>
+        <v>783.7078166445478</v>
       </c>
     </row>
     <row r="34">
@@ -6832,7 +6834,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="C34" t="n">
         <v>42.02425610119923</v>
@@ -6880,28 +6882,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R34" t="n">
-        <v>574.0835013471317</v>
+        <v>444.8191788238401</v>
       </c>
       <c r="S34" t="n">
-        <v>360.3737387508193</v>
+        <v>444.8191788238401</v>
       </c>
       <c r="T34" t="n">
-        <v>360.3737387508193</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="U34" t="n">
-        <v>73.18349923991912</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="V34" t="n">
-        <v>73.18349923991912</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="W34" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="X34" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
       <c r="Y34" t="n">
-        <v>42.02425610119923</v>
+        <v>211.6402256395189</v>
       </c>
     </row>
     <row r="35">
@@ -6911,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="C35" t="n">
-        <v>1719.279046392769</v>
+        <v>1382.29977228871</v>
       </c>
       <c r="D35" t="n">
-        <v>1346.455081619992</v>
+        <v>1009.475807515934</v>
       </c>
       <c r="E35" t="n">
-        <v>951.6693617260989</v>
+        <v>614.6900876220407</v>
       </c>
       <c r="F35" t="n">
-        <v>537.5181710362692</v>
+        <v>200.538896932211</v>
       </c>
       <c r="G35" t="n">
-        <v>121.4141844904572</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I35" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J35" t="n">
-        <v>114.0228003740049</v>
+        <v>114.0228003740048</v>
       </c>
       <c r="K35" t="n">
-        <v>354.1631724187877</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L35" t="n">
         <v>702.048545503734</v>
@@ -6950,37 +6952,37 @@
         <v>1473.619070444538</v>
       </c>
       <c r="O35" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P35" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U35" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="V35" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="W35" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="X35" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
       <c r="Y35" t="n">
-        <v>2101.212805059961</v>
+        <v>1764.233530955903</v>
       </c>
     </row>
     <row r="36">
@@ -6990,31 +6992,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>753.0168738400023</v>
+        <v>921.3370166032433</v>
       </c>
       <c r="C36" t="n">
-        <v>591.313201080957</v>
+        <v>759.6333438441981</v>
       </c>
       <c r="D36" t="n">
-        <v>452.4745640711691</v>
+        <v>620.7947068344101</v>
       </c>
       <c r="E36" t="n">
-        <v>305.4465541280403</v>
+        <v>473.7666968912813</v>
       </c>
       <c r="F36" t="n">
-        <v>170.7527560779147</v>
+        <v>339.0728988411556</v>
       </c>
       <c r="G36" t="n">
-        <v>42.02425610119923</v>
+        <v>210.3443988644402</v>
       </c>
       <c r="H36" t="n">
-        <v>42.02425610119923</v>
+        <v>110.4065414111382</v>
       </c>
       <c r="I36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J36" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K36" t="n">
         <v>271.5148086613879</v>
@@ -7026,40 +7028,40 @@
         <v>1122.37000734173</v>
       </c>
       <c r="N36" t="n">
-        <v>1406.916935000113</v>
+        <v>1633.635653464852</v>
       </c>
       <c r="O36" t="n">
-        <v>1799.116885784264</v>
+        <v>2025.835604249003</v>
       </c>
       <c r="P36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R36" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S36" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T36" t="n">
-        <v>1991.080914813936</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U36" t="n">
-        <v>1772.586122412246</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="V36" t="n">
-        <v>1544.19049986058</v>
+        <v>1531.332591687021</v>
       </c>
       <c r="W36" t="n">
-        <v>1302.87463109389</v>
+        <v>1290.016722920331</v>
       </c>
       <c r="X36" t="n">
-        <v>1104.957642971684</v>
+        <v>1092.099734798126</v>
       </c>
       <c r="Y36" t="n">
-        <v>912.4363166212631</v>
+        <v>1080.756459384504</v>
       </c>
     </row>
     <row r="37">
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J37" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K37" t="n">
         <v>75.62844384584264</v>
@@ -7120,25 +7122,25 @@
         <v>574.0835013471317</v>
       </c>
       <c r="S37" t="n">
-        <v>524.7947193504995</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T37" t="n">
-        <v>524.7947193504995</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U37" t="n">
-        <v>524.7947193504995</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V37" t="n">
-        <v>264.0594149089221</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W37" t="n">
-        <v>264.0594149089221</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X37" t="n">
-        <v>264.0594149089221</v>
+        <v>342.8310372425075</v>
       </c>
       <c r="Y37" t="n">
-        <v>42.02425610119923</v>
+        <v>120.7958784347846</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1313.62741011778</v>
+        <v>371.2412686248296</v>
       </c>
       <c r="C38" t="n">
-        <v>1223.785131457699</v>
+        <v>371.2412686248296</v>
       </c>
       <c r="D38" t="n">
-        <v>850.9611666849221</v>
+        <v>371.2412686248296</v>
       </c>
       <c r="E38" t="n">
-        <v>456.1754467910289</v>
+        <v>371.2412686248296</v>
       </c>
       <c r="F38" t="n">
-        <v>42.02425610119923</v>
+        <v>371.2412686248296</v>
       </c>
       <c r="G38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I38" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J38" t="n">
-        <v>114.0228003740045</v>
+        <v>114.0228003740049</v>
       </c>
       <c r="K38" t="n">
-        <v>354.1631724187873</v>
+        <v>354.1631724187876</v>
       </c>
       <c r="L38" t="n">
-        <v>702.0485455037335</v>
+        <v>702.0485455037339</v>
       </c>
       <c r="M38" t="n">
-        <v>1095.287711756821</v>
+        <v>1095.287711756822</v>
       </c>
       <c r="N38" t="n">
-        <v>1473.619070444537</v>
+        <v>1473.619070444538</v>
       </c>
       <c r="O38" t="n">
-        <v>1778.623654917371</v>
+        <v>1778.623654917372</v>
       </c>
       <c r="P38" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T38" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="U38" t="n">
-        <v>2101.212805059961</v>
+        <v>1846.327468773956</v>
       </c>
       <c r="V38" t="n">
-        <v>2101.212805059961</v>
+        <v>1509.348194669897</v>
       </c>
       <c r="W38" t="n">
-        <v>2101.212805059961</v>
+        <v>1146.813264527498</v>
       </c>
       <c r="X38" t="n">
-        <v>2101.212805059961</v>
+        <v>764.7831240489916</v>
       </c>
       <c r="Y38" t="n">
-        <v>1707.670949635799</v>
+        <v>371.2412686248296</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>624.2883738632869</v>
+        <v>852.9547312933042</v>
       </c>
       <c r="C39" t="n">
-        <v>462.5847011042416</v>
+        <v>691.251058534259</v>
       </c>
       <c r="D39" t="n">
-        <v>323.7460640944537</v>
+        <v>552.412421524471</v>
       </c>
       <c r="E39" t="n">
-        <v>176.7180541513249</v>
+        <v>405.3844115813423</v>
       </c>
       <c r="F39" t="n">
-        <v>42.02425610119923</v>
+        <v>270.6906135312166</v>
       </c>
       <c r="G39" t="n">
-        <v>42.02425610119923</v>
+        <v>141.9621135545012</v>
       </c>
       <c r="H39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I39" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J39" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K39" t="n">
-        <v>271.5148086613879</v>
+        <v>331.768955194494</v>
       </c>
       <c r="L39" t="n">
-        <v>637.3366538315036</v>
+        <v>410.6179353667651</v>
       </c>
       <c r="M39" t="n">
-        <v>1122.37000734173</v>
+        <v>895.6512888769915</v>
       </c>
       <c r="N39" t="n">
-        <v>1406.916935000113</v>
+        <v>1406.916935000114</v>
       </c>
       <c r="O39" t="n">
         <v>1799.116885784264</v>
       </c>
       <c r="P39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="Q39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R39" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S39" t="n">
-        <v>2051.037518671235</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="T39" t="n">
-        <v>1862.35241483722</v>
+        <v>2091.018772267238</v>
       </c>
       <c r="U39" t="n">
-        <v>1643.85762243553</v>
+        <v>1872.523979865548</v>
       </c>
       <c r="V39" t="n">
-        <v>1415.461999883864</v>
+        <v>1644.128357313882</v>
       </c>
       <c r="W39" t="n">
-        <v>1174.146131117174</v>
+        <v>1402.812488547192</v>
       </c>
       <c r="X39" t="n">
-        <v>976.229142994969</v>
+        <v>1204.895500424986</v>
       </c>
       <c r="Y39" t="n">
-        <v>783.7078166445478</v>
+        <v>1012.374174074565</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="C40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="D40" t="n">
-        <v>2101.212805059961</v>
+        <v>421.0116081748944</v>
       </c>
       <c r="E40" t="n">
-        <v>1949.20379082128</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="F40" t="n">
-        <v>1796.723135847057</v>
+        <v>370.3166499540754</v>
       </c>
       <c r="G40" t="n">
-        <v>1627.803387214907</v>
+        <v>201.3969013219254</v>
       </c>
       <c r="H40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J40" t="n">
-        <v>1569.153559814029</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K40" t="n">
-        <v>1602.757747558672</v>
+        <v>75.62844384584264</v>
       </c>
       <c r="L40" t="n">
-        <v>1703.364826958932</v>
+        <v>176.2355232461022</v>
       </c>
       <c r="M40" t="n">
-        <v>1821.358333086534</v>
+        <v>294.2290293737039</v>
       </c>
       <c r="N40" t="n">
-        <v>1939.780674836134</v>
+        <v>412.6513711233043</v>
       </c>
       <c r="O40" t="n">
-        <v>2038.244321331824</v>
+        <v>511.1150176189939</v>
       </c>
       <c r="P40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Q40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="R40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="V40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="W40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="X40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="Y40" t="n">
-        <v>2101.212805059961</v>
+        <v>574.0835013471317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>931.5972696392735</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="C41" t="n">
-        <v>931.5972696392735</v>
+        <v>414.8482208739757</v>
       </c>
       <c r="D41" t="n">
-        <v>931.5972696392735</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E41" t="n">
-        <v>536.8115497453803</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F41" t="n">
-        <v>122.6603590555506</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I41" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J41" t="n">
         <v>114.0228003740049</v>
@@ -7427,34 +7429,34 @@
         <v>1778.623654917371</v>
       </c>
       <c r="P41" t="n">
-        <v>2006.780551373424</v>
+        <v>2006.780551373425</v>
       </c>
       <c r="Q41" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R41" t="n">
-        <v>2101.212805059961</v>
+        <v>2010.574518555815</v>
       </c>
       <c r="S41" t="n">
-        <v>2101.212805059961</v>
+        <v>1823.345543186169</v>
       </c>
       <c r="T41" t="n">
-        <v>2101.212805059961</v>
+        <v>1598.98659691718</v>
       </c>
       <c r="U41" t="n">
-        <v>2101.212805059961</v>
+        <v>1344.101260631174</v>
       </c>
       <c r="V41" t="n">
-        <v>2101.212805059961</v>
+        <v>1007.121986527115</v>
       </c>
       <c r="W41" t="n">
-        <v>2101.212805059961</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="X41" t="n">
-        <v>1719.182664581455</v>
+        <v>644.5870563847166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1325.640809157293</v>
+        <v>644.5870563847166</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>902.8592828036792</v>
+        <v>521.6641732647536</v>
       </c>
       <c r="C42" t="n">
-        <v>741.1556100446339</v>
+        <v>359.9605005057083</v>
       </c>
       <c r="D42" t="n">
-        <v>602.316973034846</v>
+        <v>221.1218634959204</v>
       </c>
       <c r="E42" t="n">
-        <v>455.2889630917172</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="F42" t="n">
-        <v>320.5951650415916</v>
+        <v>74.09385355279159</v>
       </c>
       <c r="G42" t="n">
-        <v>191.8666650648762</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H42" t="n">
-        <v>91.92880761157421</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I42" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J42" t="n">
-        <v>42.02425610119923</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="K42" t="n">
-        <v>44.796090196649</v>
+        <v>102.2784026343054</v>
       </c>
       <c r="L42" t="n">
-        <v>410.6179353667646</v>
+        <v>252.8463055811708</v>
       </c>
       <c r="M42" t="n">
-        <v>895.6512888769911</v>
+        <v>737.8796590913972</v>
       </c>
       <c r="N42" t="n">
-        <v>1406.916935000113</v>
+        <v>1249.145305214519</v>
       </c>
       <c r="O42" t="n">
-        <v>1799.116885784264</v>
+        <v>1641.34525599867</v>
       </c>
       <c r="P42" t="n">
-        <v>2101.212805059961</v>
+        <v>1943.441175274367</v>
       </c>
       <c r="Q42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="R42" t="n">
-        <v>2101.212805059961</v>
+        <v>2101.212805059962</v>
       </c>
       <c r="S42" t="n">
-        <v>2101.212805059961</v>
+        <v>1948.413318072702</v>
       </c>
       <c r="T42" t="n">
-        <v>1912.527701225946</v>
+        <v>1759.728214238687</v>
       </c>
       <c r="U42" t="n">
-        <v>1694.032908824257</v>
+        <v>1541.233421836997</v>
       </c>
       <c r="V42" t="n">
-        <v>1694.032908824257</v>
+        <v>1312.837799285331</v>
       </c>
       <c r="W42" t="n">
-        <v>1452.717040057566</v>
+        <v>1071.521930518641</v>
       </c>
       <c r="X42" t="n">
-        <v>1254.800051935361</v>
+        <v>873.6049423964356</v>
       </c>
       <c r="Y42" t="n">
-        <v>1062.27872558494</v>
+        <v>681.0836160460144</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>202.526561153787</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="C43" t="n">
-        <v>202.526561153787</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="D43" t="n">
-        <v>202.526561153787</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="E43" t="n">
-        <v>50.51754691510578</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="F43" t="n">
-        <v>50.51754691510578</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="G43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="H43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="I43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="J43" t="n">
-        <v>42.02425610119923</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="K43" t="n">
         <v>75.62844384584264</v>
@@ -7591,28 +7593,28 @@
         <v>574.0835013471317</v>
       </c>
       <c r="R43" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="S43" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="T43" t="n">
-        <v>424.5617199615099</v>
+        <v>574.0835013471317</v>
       </c>
       <c r="U43" t="n">
-        <v>424.5617199615099</v>
+        <v>302.7595605427766</v>
       </c>
       <c r="V43" t="n">
-        <v>424.5617199615099</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="W43" t="n">
-        <v>424.5617199615099</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="X43" t="n">
-        <v>424.5617199615099</v>
+        <v>42.02425610119924</v>
       </c>
       <c r="Y43" t="n">
-        <v>202.526561153787</v>
+        <v>42.02425610119924</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>268.7167905282488</v>
+        <v>1429.642919560146</v>
       </c>
       <c r="C44" t="n">
-        <v>147.9587552745337</v>
+        <v>1047.709160892954</v>
       </c>
       <c r="D44" t="n">
-        <v>147.9587552745337</v>
+        <v>674.8851961201772</v>
       </c>
       <c r="E44" t="n">
-        <v>147.9587552745337</v>
+        <v>280.099476226284</v>
       </c>
       <c r="F44" t="n">
-        <v>147.9587552745337</v>
+        <v>280.099476226284</v>
       </c>
       <c r="G44" t="n">
-        <v>147.9587552745337</v>
+        <v>280.099476226284</v>
       </c>
       <c r="H44" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I44" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J44" t="n">
-        <v>10.85835194379454</v>
+        <v>154.9459054532636</v>
       </c>
       <c r="K44" t="n">
-        <v>10.85835194379454</v>
+        <v>443.1860302481634</v>
       </c>
       <c r="L44" t="n">
-        <v>45.36902758981768</v>
+        <v>850.7433998907119</v>
       </c>
       <c r="M44" t="n">
-        <v>45.36902758981768</v>
+        <v>1310.379159876956</v>
       </c>
       <c r="N44" t="n">
-        <v>179.7411328942751</v>
+        <v>1756.181478599933</v>
       </c>
       <c r="O44" t="n">
-        <v>314.1132381987326</v>
+        <v>2124.896977382889</v>
       </c>
       <c r="P44" t="n">
-        <v>448.4853435031901</v>
+        <v>2407.429665198535</v>
       </c>
       <c r="Q44" t="n">
-        <v>542.9175971897271</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R44" t="n">
-        <v>542.9175971897271</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="S44" t="n">
-        <v>542.9175971897271</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="T44" t="n">
-        <v>405.8171938589879</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="U44" t="n">
-        <v>405.8171938589879</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="V44" t="n">
-        <v>405.8171938589879</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="W44" t="n">
-        <v>405.8171938589879</v>
+        <v>2205.716599556672</v>
       </c>
       <c r="X44" t="n">
-        <v>405.8171938589879</v>
+        <v>1823.686459078165</v>
       </c>
       <c r="Y44" t="n">
-        <v>405.8171938589879</v>
+        <v>1823.686459078165</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>511.3189107546767</v>
+        <v>920.8593958421045</v>
       </c>
       <c r="C45" t="n">
-        <v>511.3189107546767</v>
+        <v>759.1557230830592</v>
       </c>
       <c r="D45" t="n">
-        <v>374.2185074239376</v>
+        <v>620.3170860732713</v>
       </c>
       <c r="E45" t="n">
-        <v>374.2185074239376</v>
+        <v>473.2890761301425</v>
       </c>
       <c r="F45" t="n">
-        <v>239.5247093738119</v>
+        <v>338.5952780800169</v>
       </c>
       <c r="G45" t="n">
-        <v>110.7962093970965</v>
+        <v>210.0732042050869</v>
       </c>
       <c r="H45" t="n">
-        <v>10.85835194379454</v>
+        <v>112.1289883137699</v>
       </c>
       <c r="I45" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J45" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K45" t="n">
-        <v>145.230457248252</v>
+        <v>251.6973914949265</v>
       </c>
       <c r="L45" t="n">
-        <v>279.6025625527094</v>
+        <v>661.4480243753522</v>
       </c>
       <c r="M45" t="n">
-        <v>413.9746678571669</v>
+        <v>1197.744201156453</v>
       </c>
       <c r="N45" t="n">
-        <v>542.9175971897271</v>
+        <v>1761.629444945137</v>
       </c>
       <c r="O45" t="n">
-        <v>542.9175971897271</v>
+        <v>2201.966047520445</v>
       </c>
       <c r="P45" t="n">
-        <v>542.9175971897271</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="Q45" t="n">
-        <v>542.9175971897271</v>
+        <v>2542.695873660731</v>
       </c>
       <c r="R45" t="n">
-        <v>542.9175971897271</v>
+        <v>2495.728130619192</v>
       </c>
       <c r="S45" t="n">
-        <v>542.9175971897271</v>
+        <v>2346.762917934841</v>
       </c>
       <c r="T45" t="n">
-        <v>542.9175971897271</v>
+        <v>2158.909856151447</v>
       </c>
       <c r="U45" t="n">
-        <v>542.9175971897271</v>
+        <v>1940.428644414348</v>
       </c>
       <c r="V45" t="n">
-        <v>542.9175971897271</v>
+        <v>1712.033021862682</v>
       </c>
       <c r="W45" t="n">
-        <v>542.9175971897271</v>
+        <v>1470.717153095992</v>
       </c>
       <c r="X45" t="n">
-        <v>542.9175971897271</v>
+        <v>1272.800164973786</v>
       </c>
       <c r="Y45" t="n">
-        <v>542.9175971897271</v>
+        <v>1080.278838623365</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>422.159561936012</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="C46" t="n">
-        <v>422.159561936012</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="D46" t="n">
-        <v>422.159561936012</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="E46" t="n">
-        <v>285.0591586052728</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="F46" t="n">
-        <v>147.9587552745337</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="G46" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="H46" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="I46" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="J46" t="n">
-        <v>10.85835194379454</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="K46" t="n">
-        <v>44.46253968843796</v>
+        <v>104.1644935890949</v>
       </c>
       <c r="L46" t="n">
-        <v>145.0696190886975</v>
+        <v>229.9889654324849</v>
       </c>
       <c r="M46" t="n">
-        <v>263.0631252162992</v>
+        <v>374.5706761520456</v>
       </c>
       <c r="N46" t="n">
-        <v>381.4854669658995</v>
+        <v>518.9490144159677</v>
       </c>
       <c r="O46" t="n">
-        <v>479.9491134615892</v>
+        <v>641.3872247924078</v>
       </c>
       <c r="P46" t="n">
-        <v>542.917597189727</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="Q46" t="n">
-        <v>504.380255843416</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="R46" t="n">
-        <v>422.159561936012</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="S46" t="n">
-        <v>422.159561936012</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="T46" t="n">
-        <v>422.159561936012</v>
+        <v>724.8700896544216</v>
       </c>
       <c r="U46" t="n">
-        <v>422.159561936012</v>
+        <v>597.7456233973928</v>
       </c>
       <c r="V46" t="n">
-        <v>422.159561936012</v>
+        <v>337.0103189558155</v>
       </c>
       <c r="W46" t="n">
-        <v>422.159561936012</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="X46" t="n">
-        <v>422.159561936012</v>
+        <v>50.85391747321462</v>
       </c>
       <c r="Y46" t="n">
-        <v>422.159561936012</v>
+        <v>50.85391747321462</v>
       </c>
     </row>
   </sheetData>
@@ -7985,13 +7987,13 @@
         <v>191.5602121631146</v>
       </c>
       <c r="M2" t="n">
-        <v>187.1563144971591</v>
+        <v>285.0191798281439</v>
       </c>
       <c r="N2" t="n">
         <v>322.1275134696619</v>
       </c>
       <c r="O2" t="n">
-        <v>284.8176621111053</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P2" t="n">
         <v>187.8768090511565</v>
@@ -8055,28 +8057,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J3" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K3" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L3" t="n">
-        <v>112.5754335711478</v>
+        <v>181.9580424594851</v>
       </c>
       <c r="M3" t="n">
-        <v>115.4839025616399</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N3" t="n">
-        <v>242.4445403651401</v>
+        <v>106.7151410677083</v>
       </c>
       <c r="O3" t="n">
-        <v>246.1048317753133</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P3" t="n">
         <v>244.5836053215751</v>
       </c>
       <c r="Q3" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R3" t="n">
         <v>59.17817075471706</v>
@@ -8140,7 +8142,7 @@
         <v>138.7668962480483</v>
       </c>
       <c r="L4" t="n">
-        <v>211.2171120040208</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M4" t="n">
         <v>232.0625591822793</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>219.8255997236959</v>
+        <v>147.0997974279326</v>
       </c>
       <c r="K5" t="n">
-        <v>178.8230039740467</v>
+        <v>309.0683871382489</v>
       </c>
       <c r="L5" t="n">
         <v>327.2896114605464</v>
       </c>
       <c r="M5" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N5" t="n">
-        <v>186.3981141722301</v>
+        <v>322.1275134696619</v>
       </c>
       <c r="O5" t="n">
-        <v>284.8176621111052</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P5" t="n">
-        <v>323.6062083485883</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q5" t="n">
-        <v>276.0094878578761</v>
+        <v>180.6233730229902</v>
       </c>
       <c r="R5" t="n">
         <v>85.43134583487716</v>
@@ -8292,25 +8294,25 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J6" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K6" t="n">
-        <v>247.7255684640984</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L6" t="n">
         <v>248.3048328685796</v>
       </c>
       <c r="M6" t="n">
-        <v>184.8665114499772</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N6" t="n">
-        <v>106.7151410677083</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O6" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P6" t="n">
-        <v>108.8542060241433</v>
+        <v>244.5836053215751</v>
       </c>
       <c r="Q6" t="n">
         <v>113.7351914448925</v>
@@ -8453,19 +8455,19 @@
         <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
         <v>327.2896114605464</v>
       </c>
       <c r="M8" t="n">
-        <v>322.8857137945909</v>
+        <v>244.675895365598</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>244.4743776485593</v>
+        <v>322.6841960775522</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
@@ -8529,28 +8531,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J9" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M9" t="n">
-        <v>245.7292857258421</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N9" t="n">
-        <v>242.4445403651401</v>
+        <v>176.0977499560457</v>
       </c>
       <c r="O9" t="n">
-        <v>251.5888479085429</v>
+        <v>115.8594486111111</v>
       </c>
       <c r="P9" t="n">
         <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>249.4645907423243</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8620,7 +8622,7 @@
         <v>232.0625591822793</v>
       </c>
       <c r="N10" t="n">
-        <v>223.3630318978004</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O10" t="n">
         <v>211.9541662756472</v>
@@ -8693,7 +8695,7 @@
         <v>178.8230039740467</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5602121631146</v>
+        <v>321.8055953273168</v>
       </c>
       <c r="M11" t="n">
         <v>322.8857137945909</v>
@@ -8705,7 +8707,7 @@
         <v>322.6841960775522</v>
       </c>
       <c r="P11" t="n">
-        <v>318.1221922153587</v>
+        <v>187.8768090511565</v>
       </c>
       <c r="Q11" t="n">
         <v>180.6233730229902</v>
@@ -8772,19 +8774,19 @@
         <v>111.9961691666667</v>
       </c>
       <c r="L12" t="n">
-        <v>112.5754335711478</v>
+        <v>248.3048328685796</v>
       </c>
       <c r="M12" t="n">
         <v>251.2133018590717</v>
       </c>
       <c r="N12" t="n">
-        <v>242.4445403651401</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O12" t="n">
         <v>251.5888479085429</v>
       </c>
       <c r="P12" t="n">
-        <v>239.0995891883455</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q12" t="n">
         <v>113.7351914448925</v>
@@ -8933,16 +8935,16 @@
         <v>327.2896114605464</v>
       </c>
       <c r="M14" t="n">
-        <v>187.1563144971591</v>
+        <v>322.8857137945909</v>
       </c>
       <c r="N14" t="n">
-        <v>322.1275134696619</v>
+        <v>316.6434973364323</v>
       </c>
       <c r="O14" t="n">
-        <v>322.6841960775522</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P14" t="n">
-        <v>318.1221922153587</v>
+        <v>323.6062083485883</v>
       </c>
       <c r="Q14" t="n">
         <v>180.6233730229902</v>
@@ -9012,10 +9014,10 @@
         <v>248.3048328685796</v>
       </c>
       <c r="M15" t="n">
-        <v>245.7292857258421</v>
+        <v>251.2133018590717</v>
       </c>
       <c r="N15" t="n">
-        <v>242.4445403651401</v>
+        <v>236.9605242319105</v>
       </c>
       <c r="O15" t="n">
         <v>251.5888479085429</v>
@@ -9161,28 +9163,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236955</v>
       </c>
       <c r="K17" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L17" t="n">
-        <v>321.8055953273168</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M17" t="n">
-        <v>322.8857137945909</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N17" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O17" t="n">
-        <v>186.9547967801205</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P17" t="n">
-        <v>323.6062083485883</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q17" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R17" t="n">
         <v>85.43134583487716</v>
@@ -9240,28 +9242,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>163.9183459425315</v>
+        <v>103.0555716666667</v>
       </c>
       <c r="K18" t="n">
         <v>111.9961691666667</v>
       </c>
       <c r="L18" t="n">
-        <v>248.3048328685796</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M18" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N18" t="n">
-        <v>176.0977499560457</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5888479085429</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R18" t="n">
         <v>59.17817075471706</v>
@@ -9404,7 +9406,7 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L20" t="n">
-        <v>542.9595789155851</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M20" t="n">
         <v>584.3675935406823</v>
@@ -9480,10 +9482,10 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K21" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L21" t="n">
-        <v>482.0924488944969</v>
+        <v>325.5269987024317</v>
       </c>
       <c r="M21" t="n">
         <v>605.4165828749999</v>
@@ -9498,7 +9500,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R21" t="n">
         <v>59.17817075471706</v>
@@ -9717,13 +9719,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K24" t="n">
-        <v>343.8048081163522</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L24" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M24" t="n">
-        <v>605.4165828749999</v>
+        <v>387.98835840707</v>
       </c>
       <c r="N24" t="n">
         <v>623.1450866466196</v>
@@ -9732,10 +9734,10 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P24" t="n">
-        <v>124.1300184260142</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R24" t="n">
         <v>59.17817075471706</v>
@@ -9954,7 +9956,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K27" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
@@ -9969,7 +9971,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P27" t="n">
-        <v>414.0015992319183</v>
+        <v>184.992792701879</v>
       </c>
       <c r="Q27" t="n">
         <v>113.7351914448925</v>
@@ -10109,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K29" t="n">
         <v>421.3890363425141</v>
@@ -10191,7 +10193,7 @@
         <v>103.0555716666667</v>
       </c>
       <c r="K30" t="n">
-        <v>114.7960015863129</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L30" t="n">
         <v>482.0924488944969</v>
@@ -10203,13 +10205,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>512.0210150597484</v>
+        <v>123.6469259179976</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10367,7 +10369,7 @@
         <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
-        <v>276.0094878578759</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R32" t="n">
         <v>85.43134583487716</v>
@@ -10425,7 +10427,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>163.9183459425315</v>
+        <v>105.8554040863129</v>
       </c>
       <c r="K33" t="n">
         <v>111.9961691666667</v>
@@ -10443,7 +10445,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P33" t="n">
-        <v>355.9386573756997</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
         <v>113.7351914448925</v>
@@ -10674,13 +10676,13 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N36" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O36" t="n">
         <v>512.0210150597484</v>
       </c>
       <c r="P36" t="n">
-        <v>414.0015992319183</v>
+        <v>184.9927927018795</v>
       </c>
       <c r="Q36" t="n">
         <v>113.7351914448925</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236955</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K38" t="n">
         <v>421.3890363425141</v>
@@ -10899,19 +10901,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K39" t="n">
         <v>343.8048081163522</v>
       </c>
       <c r="L39" t="n">
-        <v>482.0924488944969</v>
+        <v>192.2208680885933</v>
       </c>
       <c r="M39" t="n">
         <v>605.4165828749999</v>
       </c>
       <c r="N39" t="n">
-        <v>394.1362801165803</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11072,7 +11074,7 @@
         <v>568.5510017355793</v>
       </c>
       <c r="O41" t="n">
-        <v>495.0402356415685</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P41" t="n">
         <v>418.3383206229274</v>
@@ -11136,13 +11138,13 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>103.0555716666667</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>114.7960015863129</v>
+        <v>111.9961691666667</v>
       </c>
       <c r="L42" t="n">
-        <v>482.0924488944969</v>
+        <v>264.6642244265673</v>
       </c>
       <c r="M42" t="n">
         <v>605.4165828749999</v>
@@ -11157,7 +11159,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>113.7351914448925</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11294,25 +11296,25 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K44" t="n">
-        <v>178.8230039740467</v>
+        <v>421.3890363425141</v>
       </c>
       <c r="L44" t="n">
-        <v>226.4194804924309</v>
+        <v>542.9595789155856</v>
       </c>
       <c r="M44" t="n">
-        <v>187.1563144971591</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N44" t="n">
-        <v>322.1275134696619</v>
+        <v>568.5510017355793</v>
       </c>
       <c r="O44" t="n">
-        <v>322.6841960775522</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P44" t="n">
-        <v>323.6062083485883</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q44" t="n">
         <v>276.0094878578761</v>
@@ -11373,28 +11375,28 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J45" t="n">
-        <v>103.0555716666667</v>
+        <v>83.74785933339987</v>
       </c>
       <c r="K45" t="n">
-        <v>247.7255684640984</v>
+        <v>281.8684094834668</v>
       </c>
       <c r="L45" t="n">
-        <v>248.3048328685796</v>
+        <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>251.2133018590717</v>
+        <v>605.4165828749999</v>
       </c>
       <c r="N45" t="n">
-        <v>236.9605242319105</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
-        <v>115.8594486111111</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P45" t="n">
-        <v>108.8542060241433</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q45" t="n">
-        <v>113.7351914448925</v>
+        <v>87.64858173562192</v>
       </c>
       <c r="R45" t="n">
         <v>59.17817075471706</v>
@@ -22592,16 +22594,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S2" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T2" t="n">
-        <v>86.38595750886716</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U2" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V2" t="n">
         <v>197.8800820655863</v>
@@ -22610,10 +22612,10 @@
         <v>358.909580840975</v>
       </c>
       <c r="X2" t="n">
-        <v>242.4804397762898</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7878856078476</v>
+        <v>253.8770375724886</v>
       </c>
     </row>
     <row r="3">
@@ -22638,7 +22640,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G3" t="n">
-        <v>7.890760075770345</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H3" t="n">
         <v>98.93847887876893</v>
@@ -22689,7 +22691,7 @@
         <v>238.9027100790231</v>
       </c>
       <c r="X3" t="n">
-        <v>195.9378182409833</v>
+        <v>76.38736333980542</v>
       </c>
       <c r="Y3" t="n">
         <v>54.86671378948517</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>254.3737048254072</v>
+        <v>270.552649221661</v>
       </c>
       <c r="C5" t="n">
         <v>378.1144210805207</v>
@@ -22790,10 +22792,10 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E5" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F5" t="n">
-        <v>290.4592238817535</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G5" t="n">
         <v>411.9429466803539</v>
@@ -22802,7 +22804,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I5" t="n">
-        <v>171.0890268032919</v>
+        <v>35.35962750586017</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X5" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y5" t="n">
         <v>253.8770375724886</v>
@@ -22860,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C6" t="n">
-        <v>24.35723673402308</v>
+        <v>40.53618113027693</v>
       </c>
       <c r="D6" t="n">
         <v>137.45025063969</v>
@@ -22923,13 +22925,13 @@
         <v>226.1116663261494</v>
       </c>
       <c r="W6" t="n">
-        <v>119.3522551778451</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X6" t="n">
         <v>60.20841894355158</v>
       </c>
       <c r="Y6" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="7">
@@ -22984,7 +22986,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R7" t="n">
         <v>12.2971642743338</v>
@@ -22996,7 +22998,7 @@
         <v>95.11776435504618</v>
       </c>
       <c r="U7" t="n">
-        <v>202.9198501474612</v>
+        <v>164.7678822146133</v>
       </c>
       <c r="V7" t="n">
         <v>258.1279513971616</v>
@@ -23033,13 +23035,13 @@
         <v>410.0096787829314</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H8" t="n">
-        <v>193.763662361232</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I8" t="n">
-        <v>51.53857190211403</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,25 +23071,25 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S8" t="n">
-        <v>49.6272863185178</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T8" t="n">
         <v>222.1153568062989</v>
       </c>
       <c r="U8" t="n">
-        <v>252.3364829231459</v>
+        <v>116.6070836257141</v>
       </c>
       <c r="V8" t="n">
-        <v>333.6094813630181</v>
+        <v>197.8800820655863</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X8" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y8" t="n">
-        <v>389.6064368699203</v>
+        <v>270.0559819687425</v>
       </c>
     </row>
     <row r="9">
@@ -23097,13 +23099,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>22.0958490560165</v>
+        <v>157.8252483534483</v>
       </c>
       <c r="C9" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D9" t="n">
-        <v>17.89979573851213</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
         <v>145.5577298436975</v>
@@ -23112,7 +23114,7 @@
         <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>98.93847887876893</v>
@@ -23145,7 +23147,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>151.2714921173871</v>
@@ -23154,19 +23156,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>216.3098444776729</v>
+        <v>80.58044518024116</v>
       </c>
       <c r="V9" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W9" t="n">
-        <v>238.9027100790231</v>
+        <v>170.2504970733653</v>
       </c>
       <c r="X9" t="n">
         <v>195.9378182409833</v>
       </c>
       <c r="Y9" t="n">
-        <v>54.86671378948517</v>
+        <v>190.5961130869169</v>
       </c>
     </row>
     <row r="10">
@@ -23188,19 +23190,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F10" t="n">
-        <v>90.86205972327178</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G10" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I10" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23221,19 +23223,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S10" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T10" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U10" t="n">
-        <v>284.3183371157911</v>
+        <v>202.9198501474612</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -23264,19 +23266,19 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E11" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F11" t="n">
-        <v>274.2802794854996</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G11" t="n">
-        <v>276.2135473829221</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H11" t="n">
-        <v>329.4930616586638</v>
+        <v>193.763662361232</v>
       </c>
       <c r="I11" t="n">
-        <v>141.2704755412192</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,16 +23305,16 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S11" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T11" t="n">
-        <v>222.1153568062989</v>
+        <v>86.38595750886716</v>
       </c>
       <c r="U11" t="n">
-        <v>252.3364829231459</v>
+        <v>132.786028021968</v>
       </c>
       <c r="V11" t="n">
         <v>333.6094813630181</v>
@@ -23337,13 +23339,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C12" t="n">
-        <v>24.35723673402308</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D12" t="n">
-        <v>17.89979573851211</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E12" t="n">
-        <v>9.828330546265704</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F12" t="n">
         <v>133.3468600696244</v>
@@ -23385,22 +23387,22 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S12" t="n">
-        <v>15.54209281995534</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T12" t="n">
         <v>186.7982527956746</v>
       </c>
       <c r="U12" t="n">
-        <v>216.3098444776729</v>
+        <v>96.759389576495</v>
       </c>
       <c r="V12" t="n">
-        <v>226.1116663261494</v>
+        <v>90.38226702871759</v>
       </c>
       <c r="W12" t="n">
-        <v>238.9027100790231</v>
+        <v>103.1733107815913</v>
       </c>
       <c r="X12" t="n">
-        <v>195.9378182409833</v>
+        <v>60.20841894355158</v>
       </c>
       <c r="Y12" t="n">
         <v>190.5961130869169</v>
@@ -23425,19 +23427,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
-        <v>90.8620597232719</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G13" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H13" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I13" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R13" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S13" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T13" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U13" t="n">
-        <v>284.3183371157911</v>
+        <v>164.7678822146133</v>
       </c>
       <c r="V13" t="n">
         <v>258.1279513971616</v>
@@ -23513,7 +23515,7 @@
         <v>329.4930616586638</v>
       </c>
       <c r="I14" t="n">
-        <v>141.2704755412192</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,13 +23542,13 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S14" t="n">
-        <v>185.3566856159496</v>
+        <v>49.6272863185178</v>
       </c>
       <c r="T14" t="n">
-        <v>86.38595750886716</v>
+        <v>102.564901905121</v>
       </c>
       <c r="U14" t="n">
         <v>116.6070836257141</v>
@@ -23574,13 +23576,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C15" t="n">
-        <v>160.0866360314548</v>
+        <v>40.53618113027692</v>
       </c>
       <c r="D15" t="n">
         <v>137.45025063969</v>
       </c>
       <c r="E15" t="n">
-        <v>145.5577298436975</v>
+        <v>9.828330546265704</v>
       </c>
       <c r="F15" t="n">
         <v>133.3468600696244</v>
@@ -23628,19 +23630,19 @@
         <v>186.7982527956746</v>
       </c>
       <c r="U15" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V15" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W15" t="n">
         <v>103.1733107815913</v>
       </c>
       <c r="X15" t="n">
-        <v>76.38736333980543</v>
+        <v>195.9378182409833</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5961130869169</v>
+        <v>54.86671378948517</v>
       </c>
     </row>
     <row r="16">
@@ -23662,19 +23664,19 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F16" t="n">
-        <v>90.8620597232719</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G16" t="n">
-        <v>31.50115184839672</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H16" t="n">
-        <v>22.04951947108714</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I16" t="n">
-        <v>7.031614655916485</v>
+        <v>142.7610139533483</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R16" t="n">
-        <v>148.0265635717656</v>
+        <v>12.2971642743338</v>
       </c>
       <c r="S16" t="n">
-        <v>211.5726649703493</v>
+        <v>75.84326567291754</v>
       </c>
       <c r="T16" t="n">
-        <v>230.8471636524779</v>
+        <v>95.11776435504618</v>
       </c>
       <c r="U16" t="n">
-        <v>284.3183371157911</v>
+        <v>164.7678822146133</v>
       </c>
       <c r="V16" t="n">
         <v>258.1279513971616</v>
@@ -23741,16 +23743,16 @@
         <v>390.8378626949542</v>
       </c>
       <c r="F17" t="n">
-        <v>290.4592238817534</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>276.2135473829221</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.0890268032919</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>252.3364829231459</v>
+        <v>33.47847944056645</v>
       </c>
       <c r="V17" t="n">
-        <v>197.8800820655863</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W17" t="n">
-        <v>223.1801815435432</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X17" t="n">
         <v>378.2098390737216</v>
@@ -23808,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>157.8252483534483</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>137.45025063969</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>67.69846245683961</v>
+        <v>57.6063699920433</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23862,22 +23864,22 @@
         <v>151.2714921173871</v>
       </c>
       <c r="T18" t="n">
-        <v>67.24779789449671</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U18" t="n">
-        <v>80.58044518024116</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>90.38226702871759</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>103.1733107815913</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,22 +23937,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R19" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>211.5726649703493</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>95.11776435504618</v>
+        <v>63.70773940111974</v>
       </c>
       <c r="U19" t="n">
-        <v>148.5889378183593</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V19" t="n">
-        <v>122.3985520997298</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W19" t="n">
-        <v>163.744382566597</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X19" t="n">
         <v>228.939939463578</v>
@@ -23975,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>410.0096787829314</v>
@@ -24017,13 +24019,13 @@
         <v>89.73190363910518</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U20" t="n">
-        <v>148.1315490745486</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V20" t="n">
         <v>333.6094813630181</v>
@@ -24032,7 +24034,7 @@
         <v>358.909580840975</v>
       </c>
       <c r="X20" t="n">
-        <v>378.2098390737216</v>
+        <v>257.3707254978302</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24054,16 +24056,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I21" t="n">
         <v>67.69846245683961</v>
@@ -24105,16 +24107,16 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6301473363687649</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24139,7 +24141,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G22" t="n">
-        <v>167.2305511458285</v>
+        <v>8.333269143766643</v>
       </c>
       <c r="H22" t="n">
         <v>157.7789187685189</v>
@@ -24172,7 +24174,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R22" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>211.5726649703493</v>
@@ -24181,10 +24183,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U22" t="n">
-        <v>15.70763571947964</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W22" t="n">
         <v>283.2948374677749</v>
@@ -24193,7 +24195,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y22" t="n">
-        <v>219.8148072196457</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,19 +24208,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>300.2179470531352</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D23" t="n">
         <v>369.0957251250487</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F23" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>253.1226025059959</v>
       </c>
       <c r="H23" t="n">
         <v>329.4930616586638</v>
@@ -24251,13 +24253,13 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>185.3566856159496</v>
       </c>
       <c r="T23" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>252.3364829231459</v>
@@ -24291,13 +24293,13 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>27.43752473892766</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G24" t="n">
-        <v>62.11393345935093</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H24" t="n">
         <v>98.93847887876893</v>
@@ -24342,7 +24344,7 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D25" t="n">
-        <v>151.5411742405149</v>
+        <v>95.29939006744644</v>
       </c>
       <c r="E25" t="n">
         <v>150.4889240962943</v>
@@ -24406,16 +24408,16 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>148.0265635717656</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>211.5726649703493</v>
       </c>
       <c r="T25" t="n">
-        <v>217.366787438374</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24427,7 +24429,7 @@
         <v>283.2948374677749</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>228.939939463578</v>
       </c>
       <c r="Y25" t="n">
         <v>219.8148072196457</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>321.9564148751824</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.6889956929321</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,25 +24490,25 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V26" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W26" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y26" t="n">
         <v>389.6064368699203</v>
@@ -24528,19 +24530,19 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>98.93847887876893</v>
       </c>
       <c r="I27" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>145.4661439089489</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24643,10 +24645,10 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.98852714580336</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24658,10 +24660,10 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W28" t="n">
-        <v>283.2948374677749</v>
+        <v>154.3073811492646</v>
       </c>
       <c r="X28" t="n">
         <v>228.939939463578</v>
@@ -24677,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>390.1031041228389</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>378.1144210805207</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>369.0957251250487</v>
@@ -24689,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>410.0096787829314</v>
+        <v>9.806743721096552</v>
       </c>
       <c r="G29" t="n">
         <v>411.9429466803539</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>171.0890268032919</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,25 +24730,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>222.1153568062989</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>333.6094813630181</v>
       </c>
       <c r="W29" t="n">
-        <v>294.8827788762283</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X29" t="n">
         <v>378.2098390737216</v>
       </c>
       <c r="Y29" t="n">
-        <v>389.6064368699203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24774,10 +24776,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>42.24092077382173</v>
+        <v>215.9598310420857</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>238.9027100790231</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24838,7 +24840,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C31" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>151.5411742405149</v>
@@ -24850,13 +24852,13 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H31" t="n">
-        <v>56.39876851803591</v>
+        <v>157.7789187685189</v>
       </c>
       <c r="I31" t="n">
-        <v>142.7610139533483</v>
+        <v>42.07012239997341</v>
       </c>
       <c r="J31" t="n">
         <v>59.456666199969</v>
@@ -24914,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>410.0096787829314</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9429466803539</v>
+        <v>94.89796827907657</v>
       </c>
       <c r="H32" t="n">
-        <v>329.4930616586638</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>171.0890268032919</v>
@@ -24962,22 +24964,22 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>89.73190363910518</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>185.3566856159496</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>207.1665966847085</v>
+        <v>252.3364829231459</v>
       </c>
       <c r="V32" t="n">
         <v>333.6094813630181</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>358.909580840975</v>
       </c>
       <c r="X32" t="n">
         <v>378.2098390737216</v>
@@ -25002,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.43752473892766</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>127.4412149769483</v>
@@ -25041,10 +25043,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.18642621600367</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>101.597958592548</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25075,7 +25077,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C34" t="n">
-        <v>167.9198098429365</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>151.5411742405149</v>
@@ -25120,22 +25122,22 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R34" t="n">
-        <v>148.0265635717656</v>
+        <v>20.0548842737069</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T34" t="n">
-        <v>230.8471636524779</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V34" t="n">
         <v>258.1279513971616</v>
       </c>
       <c r="W34" t="n">
-        <v>252.4471867604422</v>
+        <v>283.2948374677749</v>
       </c>
       <c r="X34" t="n">
         <v>228.939939463578</v>
@@ -25166,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>255.0134522576522</v>
       </c>
       <c r="H35" t="n">
-        <v>250.8970325532984</v>
+        <v>329.4930616586638</v>
       </c>
       <c r="I35" t="n">
         <v>171.0890268032919</v>
@@ -25211,7 +25213,7 @@
         <v>252.3364829231459</v>
       </c>
       <c r="V35" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>358.909580840975</v>
@@ -25248,10 +25250,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25281,13 +25283,13 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S36" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>77.7676814521092</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>179.3662704274316</v>
       </c>
     </row>
     <row r="37">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>181.719814997536</v>
+        <v>103.7359088872866</v>
       </c>
       <c r="C37" t="n">
         <v>167.9198098429365</v>
@@ -25360,7 +25362,7 @@
         <v>148.0265635717656</v>
       </c>
       <c r="S37" t="n">
-        <v>162.7767707936834</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T37" t="n">
         <v>230.8471636524779</v>
@@ -25369,13 +25371,13 @@
         <v>284.3183371157911</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>258.1279513971616</v>
       </c>
       <c r="W37" t="n">
         <v>283.2948374677749</v>
       </c>
       <c r="X37" t="n">
-        <v>228.939939463578</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C38" t="n">
-        <v>289.1705652070397</v>
+        <v>378.1144210805207</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>369.0957251250487</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9429466803539</v>
+        <v>86.01810428195989</v>
       </c>
       <c r="H38" t="n">
         <v>329.4930616586638</v>
@@ -25445,16 +25447,16 @@
         <v>222.1153568062989</v>
       </c>
       <c r="U38" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25482,10 +25484,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>67.69846245683961</v>
@@ -25518,10 +25520,10 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S39" t="n">
-        <v>101.597958592548</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>176.7061603308778</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25552,19 +25554,19 @@
         <v>167.9198098429365</v>
       </c>
       <c r="D40" t="n">
-        <v>151.5411742405149</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>100.3009154576835</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>99.71558964164953</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>142.7610139533483</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C41" t="n">
-        <v>378.1144210805207</v>
+        <v>150.6729739248872</v>
       </c>
       <c r="D41" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>410.0096787829314</v>
       </c>
       <c r="G41" t="n">
-        <v>332.113204755546</v>
+        <v>411.9429466803539</v>
       </c>
       <c r="H41" t="n">
         <v>329.4930616586638</v>
@@ -25673,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>89.73190363910518</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>185.3566856159496</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>222.1153568062989</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>252.3364829231459</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>358.909580840975</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>378.2098390737216</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>389.6064368699203</v>
       </c>
     </row>
     <row r="42">
@@ -25716,16 +25718,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>95.69231349987183</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I42" t="n">
-        <v>18.29295646156837</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,7 +25757,7 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S42" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -25764,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -25792,13 +25794,13 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F43" t="n">
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>158.822193240061</v>
+        <v>167.2305511458285</v>
       </c>
       <c r="H43" t="n">
         <v>157.7789187685189</v>
@@ -25831,7 +25833,7 @@
         <v>38.15196793284785</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S43" t="n">
         <v>211.5726649703493</v>
@@ -25840,10 +25842,10 @@
         <v>230.8471636524779</v>
       </c>
       <c r="U43" t="n">
-        <v>284.3183371157911</v>
+        <v>15.70763571947964</v>
       </c>
       <c r="V43" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>283.2948374677749</v>
@@ -25852,7 +25854,7 @@
         <v>228.939939463578</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>219.8148072196457</v>
       </c>
     </row>
     <row r="44">
@@ -25862,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>254.3737048254072</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>258.5639661793427</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>369.0957251250487</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>390.8378626949542</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>410.0096787829314</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9429466803539</v>
+        <v>411.5609956070679</v>
       </c>
       <c r="H44" t="n">
-        <v>193.763662361232</v>
+        <v>98.62830206383501</v>
       </c>
       <c r="I44" t="n">
-        <v>171.0890268032919</v>
+        <v>156.363858050434</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25910,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>89.73190363910518</v>
+        <v>65.73916953180444</v>
       </c>
       <c r="S44" t="n">
-        <v>185.3566856159496</v>
+        <v>176.6529755334452</v>
       </c>
       <c r="T44" t="n">
-        <v>86.38595750886716</v>
+        <v>220.4433659829895</v>
       </c>
       <c r="U44" t="n">
-        <v>252.3364829231459</v>
+        <v>252.305926837283</v>
       </c>
       <c r="V44" t="n">
-        <v>333.6094813630181</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>358.909580840975</v>
       </c>
       <c r="X44" t="n">
-        <v>378.2098390737216</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>389.6064368699203</v>
@@ -25941,16 +25943,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>126.5425487827484</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>160.0866360314548</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>1.720851342258271</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>145.5577298436975</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25962,7 +25964,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.18642621600367</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>151.2714921173871</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>186.7982527956746</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>216.3098444776729</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>226.1116663261494</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>238.9027100790231</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>195.9378182409833</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>190.5961130869169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26029,22 +26031,22 @@
         <v>151.5411742405149</v>
       </c>
       <c r="E46" t="n">
-        <v>14.75952479886257</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F46" t="n">
-        <v>15.22644912704888</v>
+        <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>31.50115184839672</v>
+        <v>167.0592210434877</v>
       </c>
       <c r="H46" t="n">
-        <v>157.7789187685189</v>
+        <v>156.2556384040709</v>
       </c>
       <c r="I46" t="n">
-        <v>142.7610139533483</v>
+        <v>137.6086505120454</v>
       </c>
       <c r="J46" t="n">
-        <v>59.456666199969</v>
+        <v>47.34362796447565</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26065,25 +26067,25 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>23.80540818138466</v>
       </c>
       <c r="R46" t="n">
-        <v>66.62807660343563</v>
+        <v>140.32293915197</v>
       </c>
       <c r="S46" t="n">
-        <v>211.5726649703493</v>
+        <v>208.5868485504649</v>
       </c>
       <c r="T46" t="n">
-        <v>230.8471636524779</v>
+        <v>230.1151168515673</v>
       </c>
       <c r="U46" t="n">
-        <v>284.3183371157911</v>
+        <v>158.4557702430231</v>
       </c>
       <c r="V46" t="n">
-        <v>258.1279513971616</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>283.2948374677749</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>228.939939463578</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>387785.8880380721</v>
+        <v>387785.8880380723</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>387785.888038072</v>
+        <v>387785.8880380721</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>387785.888038072</v>
+        <v>387785.8880380719</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>387785.8880380719</v>
+        <v>387785.888038072</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>387785.888038072</v>
+        <v>387785.8880380721</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>387785.8880380719</v>
+        <v>664924.0308255071</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>664924.0308255071</v>
+        <v>664924.030825507</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>664924.0308255071</v>
+        <v>664924.030825507</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>664924.0308255072</v>
+        <v>664924.0308255071</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>664924.0308255071</v>
+        <v>664924.030825507</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>664924.0308255074</v>
+        <v>664924.0308255072</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>664924.030825507</v>
+        <v>664924.0308255072</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>387785.8880380718</v>
+        <v>750928.4288936488</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>96897.67639931792</v>
+      </c>
+      <c r="C2" t="n">
+        <v>96897.6763993179</v>
+      </c>
+      <c r="D2" t="n">
         <v>96897.67639931793</v>
       </c>
-      <c r="C2" t="n">
-        <v>96897.67639931796</v>
-      </c>
-      <c r="D2" t="n">
-        <v>96897.6763993179</v>
-      </c>
       <c r="E2" t="n">
-        <v>96897.67639931793</v>
+        <v>96897.67639931792</v>
       </c>
       <c r="F2" t="n">
-        <v>96897.67639931793</v>
+        <v>96897.67639931792</v>
       </c>
       <c r="G2" t="n">
-        <v>96897.67639931793</v>
+        <v>166065.1803877314</v>
       </c>
       <c r="H2" t="n">
         <v>166065.1803877314</v>
@@ -26335,10 +26337,10 @@
         <v>166065.1803877313</v>
       </c>
       <c r="J2" t="n">
-        <v>166065.1803877314</v>
+        <v>166065.1803877313</v>
       </c>
       <c r="K2" t="n">
-        <v>166065.1803877314</v>
+        <v>166065.1803877313</v>
       </c>
       <c r="L2" t="n">
         <v>166065.1803877313</v>
@@ -26347,13 +26349,13 @@
         <v>166065.1803877313</v>
       </c>
       <c r="N2" t="n">
-        <v>166065.1803877314</v>
+        <v>166065.1803877313</v>
       </c>
       <c r="O2" t="n">
         <v>166065.1803877314</v>
       </c>
       <c r="P2" t="n">
-        <v>96897.67639931793</v>
+        <v>189345.0451731253</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45486.04348075322</v>
+        <v>45486.0434807532</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>106776.3355122783</v>
       </c>
       <c r="H3" t="n">
-        <v>105110.517935065</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,10 +26404,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>93751.32501729493</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>89325.37476826595</v>
       </c>
     </row>
     <row r="4">
@@ -26430,7 +26432,7 @@
         <v>32612.10586149088</v>
       </c>
       <c r="G4" t="n">
-        <v>32612.10586149088</v>
+        <v>56418.35489603644</v>
       </c>
       <c r="H4" t="n">
         <v>56418.35489603644</v>
@@ -26442,22 +26444,22 @@
         <v>56418.35489603644</v>
       </c>
       <c r="K4" t="n">
-        <v>56418.35489603644</v>
+        <v>56418.35489603645</v>
       </c>
       <c r="L4" t="n">
         <v>56418.35489603644</v>
       </c>
       <c r="M4" t="n">
-        <v>56418.35489603644</v>
+        <v>56418.35489603645</v>
       </c>
       <c r="N4" t="n">
         <v>56418.35489603644</v>
       </c>
       <c r="O4" t="n">
-        <v>56418.35489603644</v>
+        <v>56418.35489603645</v>
       </c>
       <c r="P4" t="n">
-        <v>32612.10586149088</v>
+        <v>57148.38614792706</v>
       </c>
     </row>
     <row r="5">
@@ -26482,7 +26484,7 @@
         <v>8252.347477283851</v>
       </c>
       <c r="G5" t="n">
-        <v>8252.347477283851</v>
+        <v>31938.43463691141</v>
       </c>
       <c r="H5" t="n">
         <v>31938.43463691141</v>
@@ -26500,16 +26502,16 @@
         <v>31938.43463691141</v>
       </c>
       <c r="M5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="N5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="O5" t="n">
-        <v>31938.43463691141</v>
+        <v>31938.43463691142</v>
       </c>
       <c r="P5" t="n">
-        <v>8252.347477283851</v>
+        <v>40720.20246230468</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-23080.42042021002</v>
       </c>
       <c r="C6" t="n">
-        <v>22405.62306054324</v>
+        <v>22405.62306054318</v>
       </c>
       <c r="D6" t="n">
-        <v>22405.62306054317</v>
+        <v>22405.6230605432</v>
       </c>
       <c r="E6" t="n">
-        <v>56033.2230605432</v>
+        <v>56033.22306054318</v>
       </c>
       <c r="F6" t="n">
-        <v>56033.2230605432</v>
+        <v>56033.22306054318</v>
       </c>
       <c r="G6" t="n">
-        <v>56033.2230605432</v>
+        <v>-29067.94465749478</v>
       </c>
       <c r="H6" t="n">
-        <v>-27402.12708028151</v>
+        <v>77708.3908547835</v>
       </c>
       <c r="I6" t="n">
+        <v>77708.39085478347</v>
+      </c>
+      <c r="J6" t="n">
+        <v>42195.60790500618</v>
+      </c>
+      <c r="K6" t="n">
         <v>77708.39085478344</v>
       </c>
-      <c r="J6" t="n">
-        <v>42195.60790500627</v>
-      </c>
-      <c r="K6" t="n">
-        <v>77708.39085478353</v>
-      </c>
       <c r="L6" t="n">
-        <v>77708.39085478344</v>
+        <v>77708.39085478347</v>
       </c>
       <c r="M6" t="n">
-        <v>77708.39085478347</v>
+        <v>77708.39085478346</v>
       </c>
       <c r="N6" t="n">
-        <v>77708.3908547835</v>
+        <v>77708.39085478343</v>
       </c>
       <c r="O6" t="n">
-        <v>77708.3908547835</v>
+        <v>-16042.9341625114</v>
       </c>
       <c r="P6" t="n">
-        <v>56033.2230605432</v>
+        <v>2151.081794627629</v>
       </c>
     </row>
   </sheetData>
@@ -26777,7 +26779,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.01032947988871</v>
       </c>
     </row>
     <row r="4">
@@ -26802,7 +26804,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="G4" t="n">
-        <v>135.7293992974318</v>
+        <v>525.3032012649903</v>
       </c>
       <c r="H4" t="n">
         <v>525.3032012649903</v>
@@ -26820,16 +26822,16 @@
         <v>525.3032012649903</v>
       </c>
       <c r="M4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="N4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="O4" t="n">
-        <v>525.3032012649903</v>
+        <v>525.3032012649904</v>
       </c>
       <c r="P4" t="n">
-        <v>135.7293992974318</v>
+        <v>635.6739684151827</v>
       </c>
     </row>
   </sheetData>
@@ -26999,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>95.01032947988871</v>
       </c>
     </row>
     <row r="4">
@@ -27024,10 +27026,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="H4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27048,10 +27050,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>110.3707671501923</v>
       </c>
     </row>
   </sheetData>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>389.5738019675586</v>
       </c>
       <c r="P4" t="n">
-        <v>389.5738019675586</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.3819510732859845</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>3.911656429290089</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>14.72516875285793</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>32.41761990630636</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>48.58560883850209</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>60.27474399757805</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>67.06726639712767</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>68.15248488410148</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>64.35445889911396</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>54.92504177736622</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>41.24641896531188</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>23.99273410730074</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.703710082504379</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>1.671990823309398</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>0.03055608586287875</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.2043618407680625</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1.973705146365236</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.036142324689872</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>19.30771233326682</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>32.99995566472701</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>44.37251283869708</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>51.78062956653934</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>53.1511087530936</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>48.62288059712758</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>39.02414834806977</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>26.08660970927058</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>12.68836060488024</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>3.795931559880457</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>0.8237216301133745</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.01344485794526728</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.1713301023407829</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.523280364448053</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5.152363441302819</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>12.11303823549335</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>19.90544279922914</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>25.47211357891967</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>26.85677231511017</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>26.21817829729455</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>24.21673119267722</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>20.72159710492523</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>14.34655975146319</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.703624419795564</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.98581641988437</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>0.7320468009106177</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>0.00934527830949726</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34705,13 +34707,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>97.86286533098477</v>
       </c>
       <c r="N2" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="O2" t="n">
-        <v>97.8628653309848</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="Q3" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,7 +34862,7 @@
         <v>33.9436239844883</v>
       </c>
       <c r="L4" t="n">
-        <v>101.6233125255147</v>
+        <v>101.6233125255146</v>
       </c>
       <c r="M4" t="n">
         <v>119.1853597248502</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>72.72580229576329</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="L5" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="O5" t="n">
-        <v>97.86286533098477</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.38611483488586</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M6" t="n">
-        <v>69.38260888833734</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M8" t="n">
+        <v>57.51958086843889</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="N8" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="O8" t="n">
-        <v>57.51958086843889</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M9" t="n">
-        <v>130.2453831642022</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N9" t="n">
-        <v>135.7293992974318</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="O9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35340,7 +35342,7 @@
         <v>119.1853597248502</v>
       </c>
       <c r="N10" t="n">
-        <v>119.6185270197984</v>
+        <v>119.6185270197983</v>
       </c>
       <c r="O10" t="n">
         <v>99.45822878352493</v>
@@ -35413,7 +35415,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="M11" t="n">
         <v>135.7293992974318</v>
@@ -35425,7 +35427,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="P11" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35492,19 +35494,19 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="M12" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N12" t="n">
-        <v>135.7293992974318</v>
+        <v>130.2453831642022</v>
       </c>
       <c r="O12" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="P12" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35653,16 +35655,16 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="N14" t="n">
+        <v>130.2453831642022</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
         <v>135.7293992974318</v>
-      </c>
-      <c r="O14" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="P14" t="n">
-        <v>130.2453831642022</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,10 +35734,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M15" t="n">
+        <v>135.7293992974318</v>
+      </c>
+      <c r="N15" t="n">
         <v>130.2453831642022</v>
-      </c>
-      <c r="N15" t="n">
-        <v>135.7293992974318</v>
       </c>
       <c r="O15" t="n">
         <v>135.7293992974318</v>
@@ -35881,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>72.7258022957629</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>242.5660323684674</v>
       </c>
       <c r="L17" t="n">
-        <v>130.2453831642022</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M17" t="n">
-        <v>135.7293992974318</v>
+        <v>397.2112790435232</v>
       </c>
       <c r="N17" t="n">
-        <v>135.7293992974318</v>
+        <v>382.1528875633492</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P17" t="n">
-        <v>135.7293992974318</v>
+        <v>230.4615115717709</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.86277427586479</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>135.7293992974318</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M18" t="n">
-        <v>135.7293992974318</v>
+        <v>489.93268031336</v>
       </c>
       <c r="N18" t="n">
-        <v>69.38260888833734</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O18" t="n">
-        <v>135.7293992974318</v>
+        <v>396.1615664486372</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36124,7 +36126,7 @@
         <v>242.5660323684674</v>
       </c>
       <c r="L20" t="n">
-        <v>351.3993667524705</v>
+        <v>351.3993667524709</v>
       </c>
       <c r="M20" t="n">
         <v>397.2112790435232</v>
@@ -36200,10 +36202,10 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>369.5170153233491</v>
+        <v>212.9515651312839</v>
       </c>
       <c r="M21" t="n">
         <v>489.93268031336</v>
@@ -36218,7 +36220,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,13 +36439,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K24" t="n">
-        <v>231.8086389496855</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>369.5170153233491</v>
       </c>
       <c r="M24" t="n">
-        <v>489.93268031336</v>
+        <v>272.5044558454301</v>
       </c>
       <c r="N24" t="n">
         <v>516.4299455789112</v>
@@ -36452,10 +36454,10 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P24" t="n">
-        <v>15.27581240187084</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L27" t="n">
         <v>369.5170153233491</v>
@@ -36689,7 +36691,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P27" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773572</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,7 +36831,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K29" t="n">
         <v>242.5660323684674</v>
@@ -36911,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>2.799832419646239</v>
+        <v>231.8086389496855</v>
       </c>
       <c r="L30" t="n">
         <v>369.5170153233491</v>
@@ -36923,13 +36925,13 @@
         <v>516.4299455789112</v>
       </c>
       <c r="O30" t="n">
-        <v>396.1615664486372</v>
+        <v>7.787477306886452</v>
       </c>
       <c r="P30" t="n">
         <v>305.147393207775</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37087,7 +37089,7 @@
         <v>230.4615115717709</v>
       </c>
       <c r="Q32" t="n">
-        <v>95.38611483488566</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.86277427586479</v>
+        <v>2.799832419646239</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37163,7 +37165,7 @@
         <v>396.1615664486372</v>
       </c>
       <c r="P33" t="n">
-        <v>247.0844513515564</v>
+        <v>305.147393207775</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37394,13 +37396,13 @@
         <v>489.93268031336</v>
       </c>
       <c r="N36" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O36" t="n">
         <v>396.1615664486372</v>
       </c>
       <c r="P36" t="n">
-        <v>305.147393207775</v>
+        <v>76.13858667773617</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>72.7258022957629</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K38" t="n">
         <v>242.5660323684674</v>
@@ -37619,19 +37621,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K39" t="n">
         <v>231.8086389496855</v>
       </c>
       <c r="L39" t="n">
-        <v>369.5170153233491</v>
+        <v>79.64543451744552</v>
       </c>
       <c r="M39" t="n">
         <v>489.93268031336</v>
       </c>
       <c r="N39" t="n">
-        <v>287.421139048872</v>
+        <v>516.4299455789112</v>
       </c>
       <c r="O39" t="n">
         <v>396.1615664486372</v>
@@ -37792,7 +37794,7 @@
         <v>382.1528875633492</v>
       </c>
       <c r="O41" t="n">
-        <v>308.0854388614481</v>
+        <v>308.0854388614484</v>
       </c>
       <c r="P41" t="n">
         <v>230.4615115717709</v>
@@ -37856,13 +37858,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>60.86277427586479</v>
       </c>
       <c r="K42" t="n">
-        <v>2.799832419646239</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>369.5170153233491</v>
+        <v>152.0887908554196</v>
       </c>
       <c r="M42" t="n">
         <v>489.93268031336</v>
@@ -37877,7 +37879,7 @@
         <v>305.147393207775</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>159.3652826117113</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>105.1434222020696</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>291.1516412069695</v>
       </c>
       <c r="L44" t="n">
-        <v>34.85926832931629</v>
+        <v>411.674110750049</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>464.2785454406509</v>
       </c>
       <c r="N44" t="n">
-        <v>135.7293992974318</v>
+        <v>450.3053724474507</v>
       </c>
       <c r="O44" t="n">
-        <v>135.7293992974318</v>
+        <v>372.4398977605624</v>
       </c>
       <c r="P44" t="n">
-        <v>135.7293992974318</v>
+        <v>285.3865533491372</v>
       </c>
       <c r="Q44" t="n">
-        <v>95.38611483488586</v>
+        <v>136.6325338001977</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>135.7293992974318</v>
+        <v>202.8721959815271</v>
       </c>
       <c r="L45" t="n">
-        <v>135.7293992974318</v>
+        <v>413.8895281620462</v>
       </c>
       <c r="M45" t="n">
-        <v>135.7293992974318</v>
+        <v>541.7133098798994</v>
       </c>
       <c r="N45" t="n">
-        <v>130.2453831642022</v>
+        <v>569.5810543320048</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>444.7844470457648</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>344.1715415558448</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>33.9436239844883</v>
+        <v>53.84906678371743</v>
       </c>
       <c r="L46" t="n">
-        <v>101.6233125255146</v>
+        <v>127.0954261044343</v>
       </c>
       <c r="M46" t="n">
-        <v>119.1853597248502</v>
+        <v>146.0421320399604</v>
       </c>
       <c r="N46" t="n">
-        <v>119.6185270197983</v>
+        <v>145.8367053170929</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45822878352493</v>
+        <v>123.6749599762021</v>
       </c>
       <c r="P46" t="n">
-        <v>63.604529018321</v>
+        <v>84.32612612324623</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
